--- a/src/documents/excelfile/member.xlsx
+++ b/src/documents/excelfile/member.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Ex10\MarTec\MarTecMember\src\documents\excelfile\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17844038-D6CA-4EA0-8332-AD66023A6EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Company" sheetId="1" r:id="rId4"/>
+    <sheet name="Company" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="528">
   <si>
     <t>memberId</t>
   </si>
@@ -147,7 +156,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -163,7 +172,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -189,7 +198,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -208,7 +217,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -225,7 +234,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -248,7 +257,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -262,7 +271,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -288,7 +297,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -302,7 +311,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -328,7 +337,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -342,7 +351,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -362,7 +371,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -377,7 +386,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -403,7 +412,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -417,7 +426,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -440,7 +449,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -466,7 +475,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -480,7 +489,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -503,7 +512,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -517,7 +526,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -540,7 +549,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -575,7 +584,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -592,7 +601,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -621,7 +630,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -635,7 +644,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -658,7 +667,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -673,7 +682,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -696,7 +705,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -725,7 +734,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -748,7 +757,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -774,7 +783,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -788,7 +797,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -820,7 +829,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -837,7 +846,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -874,7 +883,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -909,7 +918,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -944,7 +953,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -970,7 +979,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -987,7 +996,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1004,7 +1013,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1021,7 +1030,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1041,7 +1050,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1067,7 +1076,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1084,7 +1093,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1101,7 +1110,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1118,7 +1127,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1135,7 +1144,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1152,7 +1161,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1169,7 +1178,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1204,7 +1213,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1242,7 +1251,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1280,7 +1289,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1294,7 +1303,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1332,7 +1341,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1346,7 +1355,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1372,7 +1381,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1386,7 +1395,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1412,7 +1421,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1426,7 +1435,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1449,7 +1458,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1463,7 +1472,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1492,7 +1501,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1506,7 +1515,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1532,7 +1541,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1547,7 +1556,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1573,7 +1582,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1588,7 +1597,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1629,7 +1638,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1643,7 +1652,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1666,7 +1675,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1680,7 +1689,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1706,7 +1715,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1720,7 +1729,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1755,7 +1764,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1787,7 +1796,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1801,7 +1810,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1827,7 +1836,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1841,7 +1850,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1867,7 +1876,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1881,7 +1890,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1913,7 +1922,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1936,7 +1945,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1950,7 +1959,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1976,7 +1985,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -1990,7 +1999,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -2016,7 +2025,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -2030,7 +2039,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -2062,7 +2071,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -2076,7 +2085,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -2109,7 +2118,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -2150,7 +2159,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial, Helvetica, sans-serif"/>
@@ -2169,7 +2178,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -2192,7 +2201,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -2203,7 +2212,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -2232,7 +2241,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -2258,7 +2267,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -2269,7 +2278,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -2295,7 +2304,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -2321,7 +2330,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -2347,7 +2356,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -2358,7 +2367,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -2387,7 +2396,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -2416,7 +2425,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -2429,34 +2438,32 @@
   </si>
   <si>
     <t>บริษัท ซาลูเต้ คอร์ปอเรชั่น จำกัด</t>
+  </si>
+  <si>
+    <t>0000097</t>
+  </si>
+  <si>
+    <t>ทาม</t>
+  </si>
+  <si>
+    <t>chatchawan.aromtip@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="d mmm yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="187" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Tahoma"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -2467,7 +2474,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -2483,7 +2490,7 @@
       <name val="Monospace"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial, Helvetica, sans-serif"/>
@@ -2492,6 +2499,12 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial, Helvetica, sans-serif"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2532,70 +2545,131 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="59" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="187" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2797,7 +2871,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2816,7 +2890,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2846,7 +2920,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2872,7 +2946,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2898,7 +2972,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2924,7 +2998,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2950,7 +3024,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2976,7 +3050,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3002,7 +3076,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3028,7 +3102,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3054,7 +3128,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3067,9 +3141,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -3086,7 +3166,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3105,7 +3185,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3131,7 +3211,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3157,7 +3237,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3183,7 +3263,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3209,7 +3289,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3235,7 +3315,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3261,7 +3341,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3287,7 +3367,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3313,7 +3393,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3339,7 +3419,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3352,9 +3432,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -3368,7 +3454,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3387,7 +3473,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3417,7 +3503,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3443,7 +3529,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3469,7 +3555,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3495,7 +3581,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3521,7 +3607,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3547,7 +3633,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3573,7 +3659,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3599,7 +3685,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3625,7 +3711,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3638,156 +3724,166 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AL98"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2857" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.4453" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.4453" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8672" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5781" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.2891" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.4453" style="1" customWidth="1"/>
-    <col min="9" max="29" width="11.5781" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="46.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="1" customWidth="1"/>
+    <col min="9" max="29" width="11.5546875" style="1" customWidth="1"/>
     <col min="30" max="30" width="20" style="1" customWidth="1"/>
-    <col min="31" max="38" width="11.5781" style="1" customWidth="1"/>
-    <col min="39" max="16384" width="11.2891" style="1" customWidth="1"/>
+    <col min="31" max="38" width="11.5546875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="11.33203125" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.7" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s" s="2">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s" s="2">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s" s="2">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s" s="2">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s" s="2">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s" s="2">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s" s="2">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s" s="2">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s" s="2">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" ht="17.7" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="4">
@@ -3799,36 +3895,36 @@
       <c r="D2" s="4">
         <v>45448</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" t="s" s="3">
+      <c r="G2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" t="s" s="3">
+      <c r="I2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J2" t="s" s="3">
+      <c r="J2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K2" t="s" s="3">
+      <c r="K2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L2" t="s" s="6">
+      <c r="L2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M2" t="s" s="7">
+      <c r="M2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N2" t="s" s="7">
+      <c r="N2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="O2" t="s" s="3">
+      <c r="O2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P2" t="s" s="7">
+      <c r="P2" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q2" s="5"/>
@@ -3844,30 +3940,30 @@
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
-      <c r="AD2" t="s" s="6">
+      <c r="AD2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AE2" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF2" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG2" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH2" t="s" s="3">
+      <c r="AE2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
-      <c r="AK2" t="s" s="3">
+      <c r="AK2" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL2" s="5"/>
     </row>
-    <row r="3" ht="17.7" customHeight="1">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="4">
@@ -3879,36 +3975,36 @@
       <c r="D3" s="4">
         <v>45448</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" t="s" s="3">
+      <c r="G3" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" t="s" s="3">
+      <c r="I3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J3" t="s" s="3">
+      <c r="J3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K3" t="s" s="3">
+      <c r="K3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L3" t="s" s="6">
+      <c r="L3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M3" t="s" s="7">
+      <c r="M3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="N3" t="s" s="3">
+      <c r="N3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="O3" t="s" s="7">
+      <c r="O3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P3" t="s" s="7">
+      <c r="P3" s="7" t="s">
         <v>53</v>
       </c>
       <c r="Q3" s="5"/>
@@ -3924,30 +4020,30 @@
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
-      <c r="AD3" t="s" s="6">
+      <c r="AD3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AE3" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF3" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG3" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH3" t="s" s="3">
+      <c r="AE3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH3" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
-      <c r="AK3" t="s" s="3">
+      <c r="AK3" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL3" s="5"/>
     </row>
-    <row r="4" ht="18.25" customHeight="1">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="4">
@@ -3959,11 +4055,11 @@
       <c r="D4" s="4">
         <v>45540</v>
       </c>
-      <c r="E4" t="s" s="3">
+      <c r="E4" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" t="s" s="3">
+      <c r="G4" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="5"/>
@@ -3988,30 +4084,30 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
-      <c r="AD4" t="s" s="6">
+      <c r="AD4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE4" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF4" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG4" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH4" t="s" s="3">
+      <c r="AE4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH4" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
-      <c r="AK4" t="s" s="3">
+      <c r="AK4" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL4" s="5"/>
     </row>
-    <row r="5" ht="18.25" customHeight="1">
-      <c r="A5" t="s" s="3">
+    <row r="5" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="4">
@@ -4023,34 +4119,34 @@
       <c r="D5" s="4">
         <v>45570</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" t="s" s="3">
+      <c r="G5" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" t="s" s="3">
+      <c r="I5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J5" t="s" s="3">
+      <c r="J5" s="3" t="s">
         <v>62</v>
       </c>
       <c r="K5" s="8">
         <v>894498687</v>
       </c>
-      <c r="L5" t="s" s="6">
+      <c r="L5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M5" t="s" s="3">
+      <c r="M5" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N5" s="5"/>
-      <c r="O5" t="s" s="3">
+      <c r="O5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P5" t="s" s="3">
+      <c r="P5" s="3" t="s">
         <v>64</v>
       </c>
       <c r="Q5" s="5"/>
@@ -4066,30 +4162,30 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
-      <c r="AD5" t="s" s="6">
+      <c r="AD5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AE5" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF5" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG5" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH5" t="s" s="3">
+      <c r="AE5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH5" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
-      <c r="AK5" t="s" s="3">
+      <c r="AK5" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL5" s="5"/>
     </row>
-    <row r="6" ht="18.25" customHeight="1">
-      <c r="A6" t="s" s="3">
+    <row r="6" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B6" s="4">
@@ -4101,34 +4197,34 @@
       <c r="D6" s="4">
         <v>45570</v>
       </c>
-      <c r="E6" t="s" s="3">
+      <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" t="s" s="3">
+      <c r="G6" s="3" t="s">
         <v>67</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" t="s" s="3">
+      <c r="I6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J6" t="s" s="3">
+      <c r="J6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K6" t="s" s="3">
+      <c r="K6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L6" t="s" s="6">
+      <c r="L6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="M6" t="s" s="3">
+      <c r="M6" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N6" s="5"/>
-      <c r="O6" t="s" s="3">
+      <c r="O6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="P6" t="s" s="3">
+      <c r="P6" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q6" s="5"/>
@@ -4144,30 +4240,30 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
-      <c r="AD6" t="s" s="6">
+      <c r="AD6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AE6" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF6" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG6" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH6" t="s" s="3">
+      <c r="AE6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH6" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
-      <c r="AK6" t="s" s="3">
+      <c r="AK6" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL6" s="5"/>
     </row>
-    <row r="7" ht="18.25" customHeight="1">
-      <c r="A7" t="s" s="3">
+    <row r="7" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B7" s="4">
@@ -4179,34 +4275,34 @@
       <c r="D7" s="4">
         <v>45570</v>
       </c>
-      <c r="E7" t="s" s="3">
+      <c r="E7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" t="s" s="3">
+      <c r="G7" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" t="s" s="3">
+      <c r="I7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J7" t="s" s="3">
+      <c r="J7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K7" t="s" s="3">
+      <c r="K7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L7" t="s" s="6">
+      <c r="L7" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="M7" t="s" s="3">
+      <c r="M7" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N7" s="5"/>
-      <c r="O7" t="s" s="3">
+      <c r="O7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="P7" t="s" s="3">
+      <c r="P7" s="3" t="s">
         <v>80</v>
       </c>
       <c r="Q7" s="5"/>
@@ -4222,30 +4318,30 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
-      <c r="AD7" t="s" s="6">
+      <c r="AD7" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AE7" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF7" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG7" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH7" t="s" s="3">
+      <c r="AE7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH7" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
-      <c r="AK7" t="s" s="3">
+      <c r="AK7" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL7" s="5"/>
     </row>
-    <row r="8" ht="17.7" customHeight="1">
-      <c r="A8" t="s" s="3">
+    <row r="8" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B8" s="4">
@@ -4257,34 +4353,34 @@
       <c r="D8" s="4">
         <v>45601</v>
       </c>
-      <c r="E8" t="s" s="3">
+      <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" t="s" s="3">
+      <c r="G8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" t="s" s="3">
+      <c r="I8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J8" t="s" s="3">
+      <c r="J8" s="3" t="s">
         <v>69</v>
       </c>
       <c r="K8" s="8">
         <v>832225113</v>
       </c>
-      <c r="L8" t="s" s="6">
+      <c r="L8" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="M8" t="s" s="7">
+      <c r="M8" s="7" t="s">
         <v>86</v>
       </c>
       <c r="N8" s="5"/>
-      <c r="O8" t="s" s="7">
+      <c r="O8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P8" t="s" s="7">
+      <c r="P8" s="7" t="s">
         <v>86</v>
       </c>
       <c r="Q8" s="5"/>
@@ -4300,30 +4396,30 @@
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
-      <c r="AD8" t="s" s="6">
+      <c r="AD8" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AE8" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF8" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG8" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH8" t="s" s="3">
+      <c r="AE8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH8" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
-      <c r="AK8" t="s" s="3">
+      <c r="AK8" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL8" s="5"/>
     </row>
-    <row r="9" ht="18.25" customHeight="1">
-      <c r="A9" t="s" s="3">
+    <row r="9" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B9" s="4">
@@ -4335,34 +4431,34 @@
       <c r="D9" s="4">
         <v>45601</v>
       </c>
-      <c r="E9" t="s" s="3">
+      <c r="E9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" t="s" s="3">
+      <c r="G9" s="3" t="s">
         <v>89</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" t="s" s="3">
+      <c r="I9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J9" t="s" s="3">
+      <c r="J9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K9" t="s" s="3">
+      <c r="K9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L9" t="s" s="6">
+      <c r="L9" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="M9" t="s" s="3">
+      <c r="M9" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N9" s="5"/>
-      <c r="O9" t="s" s="3">
+      <c r="O9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P9" t="s" s="3">
+      <c r="P9" s="3" t="s">
         <v>94</v>
       </c>
       <c r="Q9" s="5"/>
@@ -4378,30 +4474,30 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
-      <c r="AD9" t="s" s="6">
+      <c r="AD9" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AE9" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF9" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG9" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH9" t="s" s="3">
+      <c r="AE9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH9" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
-      <c r="AK9" t="s" s="3">
+      <c r="AK9" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL9" s="5"/>
     </row>
-    <row r="10" ht="17.7" customHeight="1">
-      <c r="A10" t="s" s="3">
+    <row r="10" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="4">
@@ -4409,7 +4505,7 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" t="s" s="3">
+      <c r="E10" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F10" s="5"/>
@@ -4425,23 +4521,23 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-      <c r="S10" t="s" s="3">
+      <c r="S10" s="3" t="s">
         <v>98</v>
       </c>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" t="s" s="3">
+      <c r="X10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="Y10" t="s" s="6">
+      <c r="Y10" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="Z10" t="s" s="3">
+      <c r="Z10" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AA10" t="s" s="3">
+      <c r="AA10" s="3" t="s">
         <v>101</v>
       </c>
       <c r="AB10" s="5"/>
@@ -4456,8 +4552,8 @@
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
     </row>
-    <row r="11" ht="18.25" customHeight="1">
-      <c r="A11" t="s" s="3">
+    <row r="11" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B11" s="4">
@@ -4469,32 +4565,32 @@
       <c r="D11" s="4">
         <v>45426</v>
       </c>
-      <c r="E11" t="s" s="3">
+      <c r="E11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" t="s" s="3">
+      <c r="G11" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" t="s" s="3">
+      <c r="I11" s="3" t="s">
         <v>104</v>
       </c>
       <c r="J11" s="5"/>
-      <c r="K11" t="s" s="3">
+      <c r="K11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L11" t="s" s="6">
+      <c r="L11" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="M11" t="s" s="3">
+      <c r="M11" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N11" s="5"/>
-      <c r="O11" t="s" s="3">
+      <c r="O11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="P11" t="s" s="3">
+      <c r="P11" s="3" t="s">
         <v>107</v>
       </c>
       <c r="Q11" s="5"/>
@@ -4510,30 +4606,30 @@
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
-      <c r="AD11" t="s" s="6">
+      <c r="AD11" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="AE11" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF11" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG11" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH11" t="s" s="3">
+      <c r="AE11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
-      <c r="AK11" t="s" s="3">
+      <c r="AK11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL11" s="5"/>
     </row>
-    <row r="12" ht="18.25" customHeight="1">
-      <c r="A12" t="s" s="3">
+    <row r="12" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A12" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B12" s="4">
@@ -4545,34 +4641,34 @@
       <c r="D12" s="4">
         <v>45426</v>
       </c>
-      <c r="E12" t="s" s="3">
+      <c r="E12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" t="s" s="3">
+      <c r="G12" s="3" t="s">
         <v>110</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" t="s" s="3">
+      <c r="I12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="J12" t="s" s="3">
+      <c r="J12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K12" t="s" s="3">
+      <c r="K12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="L12" t="s" s="6">
+      <c r="L12" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M12" t="s" s="3">
+      <c r="M12" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N12" s="5"/>
-      <c r="O12" t="s" s="3">
+      <c r="O12" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="P12" t="s" s="3">
+      <c r="P12" s="3" t="s">
         <v>114</v>
       </c>
       <c r="Q12" s="5"/>
@@ -4588,30 +4684,30 @@
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
-      <c r="AD12" t="s" s="6">
+      <c r="AD12" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="AE12" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF12" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG12" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH12" t="s" s="3">
+      <c r="AE12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH12" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
-      <c r="AK12" t="s" s="3">
+      <c r="AK12" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL12" s="5"/>
     </row>
-    <row r="13" ht="17.7" customHeight="1">
-      <c r="A13" t="s" s="3">
+    <row r="13" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A13" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B13" s="4">
@@ -4619,7 +4715,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" t="s" s="3">
+      <c r="E13" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F13" s="5"/>
@@ -4635,27 +4731,27 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-      <c r="S13" t="s" s="3">
+      <c r="S13" s="3" t="s">
         <v>117</v>
       </c>
       <c r="T13" s="5"/>
-      <c r="U13" t="s" s="3">
+      <c r="U13" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="V13" t="s" s="3">
+      <c r="V13" s="3" t="s">
         <v>118</v>
       </c>
       <c r="W13" s="5"/>
-      <c r="X13" t="s" s="3">
+      <c r="X13" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="Y13" t="s" s="6">
+      <c r="Y13" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="Z13" t="s" s="3">
+      <c r="Z13" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AA13" t="s" s="3">
+      <c r="AA13" s="3" t="s">
         <v>121</v>
       </c>
       <c r="AB13" s="5"/>
@@ -4670,8 +4766,8 @@
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
     </row>
-    <row r="14" ht="17.7" customHeight="1">
-      <c r="A14" t="s" s="3">
+    <row r="14" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A14" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B14" s="4">
@@ -4679,7 +4775,7 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" t="s" s="3">
+      <c r="E14" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F14" s="5"/>
@@ -4695,7 +4791,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-      <c r="S14" t="s" s="3">
+      <c r="S14" s="3" t="s">
         <v>123</v>
       </c>
       <c r="T14" s="5"/>
@@ -4718,8 +4814,8 @@
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
     </row>
-    <row r="15" ht="18.25" customHeight="1">
-      <c r="A15" t="s" s="3">
+    <row r="15" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B15" s="4">
@@ -4731,34 +4827,34 @@
       <c r="D15" s="4">
         <v>45426</v>
       </c>
-      <c r="E15" t="s" s="3">
+      <c r="E15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" t="s" s="3">
+      <c r="G15" s="3" t="s">
         <v>125</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" t="s" s="3">
+      <c r="I15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J15" t="s" s="3">
+      <c r="J15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="K15" t="s" s="3">
+      <c r="K15" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="L15" t="s" s="6">
+      <c r="L15" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="M15" t="s" s="3">
+      <c r="M15" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="N15" t="s" s="3">
+      <c r="N15" s="3" t="s">
         <v>131</v>
       </c>
       <c r="O15" s="5"/>
-      <c r="P15" t="s" s="3">
+      <c r="P15" s="3" t="s">
         <v>131</v>
       </c>
       <c r="Q15" s="5"/>
@@ -4774,30 +4870,30 @@
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
-      <c r="AD15" t="s" s="6">
+      <c r="AD15" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="AE15" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF15" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG15" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH15" t="s" s="3">
+      <c r="AE15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH15" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
-      <c r="AK15" t="s" s="3">
+      <c r="AK15" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL15" s="5"/>
     </row>
-    <row r="16" ht="17.7" customHeight="1">
-      <c r="A16" t="s" s="3">
+    <row r="16" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A16" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B16" s="4">
@@ -4805,7 +4901,7 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" t="s" s="3">
+      <c r="E16" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F16" s="5"/>
@@ -4821,7 +4917,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-      <c r="S16" t="s" s="3">
+      <c r="S16" s="3" t="s">
         <v>134</v>
       </c>
       <c r="T16" s="5"/>
@@ -4844,8 +4940,8 @@
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
     </row>
-    <row r="17" ht="18.25" customHeight="1">
-      <c r="A17" t="s" s="3">
+    <row r="17" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A17" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B17" s="4">
@@ -4857,32 +4953,32 @@
       <c r="D17" s="4">
         <v>45428</v>
       </c>
-      <c r="E17" t="s" s="3">
+      <c r="E17" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" t="s" s="3">
+      <c r="G17" s="3" t="s">
         <v>136</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" t="s" s="3">
+      <c r="I17" s="3" t="s">
         <v>137</v>
       </c>
       <c r="J17" s="5"/>
-      <c r="K17" t="s" s="3">
+      <c r="K17" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L17" t="s" s="6">
+      <c r="L17" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="M17" t="s" s="3">
+      <c r="M17" s="3" t="s">
         <v>140</v>
       </c>
       <c r="N17" s="5"/>
-      <c r="O17" t="s" s="3">
+      <c r="O17" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="P17" t="s" s="3">
+      <c r="P17" s="3" t="s">
         <v>140</v>
       </c>
       <c r="Q17" s="5"/>
@@ -4898,30 +4994,30 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
-      <c r="AD17" t="s" s="6">
+      <c r="AD17" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="AE17" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF17" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG17" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH17" t="s" s="3">
+      <c r="AE17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH17" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
-      <c r="AK17" t="s" s="3">
+      <c r="AK17" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL17" s="5"/>
     </row>
-    <row r="18" ht="17.7" customHeight="1">
-      <c r="A18" t="s" s="3">
+    <row r="18" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A18" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B18" s="4">
@@ -4933,32 +5029,32 @@
       <c r="D18" s="4">
         <v>45430</v>
       </c>
-      <c r="E18" t="s" s="3">
+      <c r="E18" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" t="s" s="3">
+      <c r="G18" s="3" t="s">
         <v>143</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" t="s" s="3">
+      <c r="I18" s="3" t="s">
         <v>144</v>
       </c>
       <c r="J18" s="5"/>
-      <c r="K18" t="s" s="3">
+      <c r="K18" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L18" t="s" s="6">
+      <c r="L18" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="M18" t="s" s="7">
+      <c r="M18" s="7" t="s">
         <v>147</v>
       </c>
       <c r="N18" s="5"/>
-      <c r="O18" t="s" s="7">
+      <c r="O18" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P18" t="s" s="7">
+      <c r="P18" s="7" t="s">
         <v>147</v>
       </c>
       <c r="Q18" s="5"/>
@@ -4974,30 +5070,30 @@
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
-      <c r="AD18" t="s" s="6">
+      <c r="AD18" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="AE18" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF18" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG18" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH18" t="s" s="3">
+      <c r="AE18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH18" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
-      <c r="AK18" t="s" s="3">
+      <c r="AK18" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL18" s="5"/>
     </row>
-    <row r="19" ht="17.7" customHeight="1">
-      <c r="A19" t="s" s="3">
+    <row r="19" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B19" s="4">
@@ -5005,32 +5101,32 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" t="s" s="3">
+      <c r="E19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" t="s" s="3">
+      <c r="G19" s="3" t="s">
         <v>83</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" t="s" s="3">
+      <c r="I19" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="J19" t="s" s="3">
+      <c r="J19" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="K19" t="s" s="3">
+      <c r="K19" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="L19" t="s" s="6">
+      <c r="L19" s="6" t="s">
         <v>153</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" t="s" s="7">
+      <c r="O19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P19" t="s" s="3">
+      <c r="P19" s="3" t="s">
         <v>154</v>
       </c>
       <c r="Q19" s="5"/>
@@ -5046,30 +5142,30 @@
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
-      <c r="AD19" t="s" s="6">
+      <c r="AD19" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AE19" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF19" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG19" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH19" t="s" s="3">
+      <c r="AE19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
-      <c r="AK19" t="s" s="3">
+      <c r="AK19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL19" s="5"/>
     </row>
-    <row r="20" ht="17.7" customHeight="1">
-      <c r="A20" t="s" s="3">
+    <row r="20" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A20" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B20" s="4">
@@ -5077,7 +5173,7 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" t="s" s="3">
+      <c r="E20" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F20" s="5"/>
@@ -5093,7 +5189,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-      <c r="S20" t="s" s="3">
+      <c r="S20" s="3" t="s">
         <v>156</v>
       </c>
       <c r="T20" s="5"/>
@@ -5116,8 +5212,8 @@
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
     </row>
-    <row r="21" ht="18.25" customHeight="1">
-      <c r="A21" t="s" s="3">
+    <row r="21" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A21" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B21" s="4">
@@ -5129,15 +5225,15 @@
       <c r="D21" s="4">
         <v>45431</v>
       </c>
-      <c r="E21" t="s" s="3">
+      <c r="E21" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" t="s" s="3">
+      <c r="G21" s="3" t="s">
         <v>158</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" t="s" s="3">
+      <c r="I21" s="3" t="s">
         <v>159</v>
       </c>
       <c r="J21" s="5"/>
@@ -5160,30 +5256,30 @@
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
-      <c r="AD21" t="s" s="6">
+      <c r="AD21" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="AE21" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF21" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG21" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH21" t="s" s="3">
+      <c r="AE21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH21" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5"/>
-      <c r="AK21" t="s" s="3">
+      <c r="AK21" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL21" s="5"/>
     </row>
-    <row r="22" ht="17.7" customHeight="1">
-      <c r="A22" t="s" s="3">
+    <row r="22" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B22" s="4">
@@ -5191,7 +5287,7 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" t="s" s="3">
+      <c r="E22" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F22" s="5"/>
@@ -5207,27 +5303,27 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
-      <c r="S22" t="s" s="3">
+      <c r="S22" s="3" t="s">
         <v>162</v>
       </c>
       <c r="T22" s="5"/>
-      <c r="U22" t="s" s="3">
+      <c r="U22" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="V22" t="s" s="3">
+      <c r="V22" s="3" t="s">
         <v>163</v>
       </c>
       <c r="W22" s="5"/>
-      <c r="X22" t="s" s="3">
+      <c r="X22" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="Y22" t="s" s="6">
+      <c r="Y22" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="Z22" t="s" s="3">
+      <c r="Z22" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="AA22" t="s" s="3">
+      <c r="AA22" s="3" t="s">
         <v>166</v>
       </c>
       <c r="AB22" s="5"/>
@@ -5242,8 +5338,8 @@
       <c r="AK22" s="5"/>
       <c r="AL22" s="5"/>
     </row>
-    <row r="23" ht="18.25" customHeight="1">
-      <c r="A23" t="s" s="3">
+    <row r="23" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A23" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B23" s="4">
@@ -5255,34 +5351,34 @@
       <c r="D23" s="4">
         <v>45435</v>
       </c>
-      <c r="E23" t="s" s="3">
+      <c r="E23" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="G23" t="s" s="3">
+      <c r="G23" s="3" t="s">
         <v>168</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" t="s" s="3">
+      <c r="I23" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="J23" t="s" s="3">
+      <c r="J23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K23" t="s" s="3">
+      <c r="K23" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="L23" t="s" s="6">
+      <c r="L23" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="M23" t="s" s="3">
+      <c r="M23" s="3" t="s">
         <v>172</v>
       </c>
       <c r="N23" s="5"/>
-      <c r="O23" t="s" s="3">
+      <c r="O23" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="P23" t="s" s="3">
+      <c r="P23" s="3" t="s">
         <v>172</v>
       </c>
       <c r="Q23" s="5"/>
@@ -5298,30 +5394,30 @@
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
-      <c r="AD23" t="s" s="6">
+      <c r="AD23" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="AE23" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF23" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG23" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH23" t="s" s="3">
+      <c r="AE23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH23" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
-      <c r="AK23" t="s" s="3">
+      <c r="AK23" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL23" s="5"/>
     </row>
-    <row r="24" ht="17.7" customHeight="1">
-      <c r="A24" t="s" s="3">
+    <row r="24" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A24" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B24" s="4">
@@ -5329,7 +5425,7 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" t="s" s="3">
+      <c r="E24" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F24" s="5"/>
@@ -5345,13 +5441,13 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
-      <c r="S24" t="s" s="3">
+      <c r="S24" s="3" t="s">
         <v>175</v>
       </c>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
-      <c r="W24" t="s" s="3">
+      <c r="W24" s="3" t="s">
         <v>176</v>
       </c>
       <c r="X24" s="5"/>
@@ -5370,8 +5466,8 @@
       <c r="AK24" s="5"/>
       <c r="AL24" s="5"/>
     </row>
-    <row r="25" ht="17.7" customHeight="1">
-      <c r="A25" t="s" s="3">
+    <row r="25" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A25" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B25" s="4">
@@ -5383,11 +5479,11 @@
       <c r="D25" s="4">
         <v>45435</v>
       </c>
-      <c r="E25" t="s" s="3">
+      <c r="E25" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" t="s" s="3">
+      <c r="G25" s="3" t="s">
         <v>178</v>
       </c>
       <c r="H25" s="5"/>
@@ -5422,8 +5518,8 @@
       <c r="AK25" s="5"/>
       <c r="AL25" s="5"/>
     </row>
-    <row r="26" ht="18.25" customHeight="1">
-      <c r="A26" t="s" s="3">
+    <row r="26" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A26" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B26" s="4">
@@ -5435,11 +5531,11 @@
       <c r="D26" s="4">
         <v>45435</v>
       </c>
-      <c r="E26" t="s" s="3">
+      <c r="E26" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" t="s" s="3">
+      <c r="G26" s="3" t="s">
         <v>180</v>
       </c>
       <c r="H26" s="5"/>
@@ -5464,30 +5560,30 @@
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
-      <c r="AD26" t="s" s="6">
+      <c r="AD26" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AE26" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF26" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG26" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH26" t="s" s="3">
+      <c r="AE26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH26" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
-      <c r="AK26" t="s" s="3">
+      <c r="AK26" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL26" s="5"/>
     </row>
-    <row r="27" ht="18.25" customHeight="1">
-      <c r="A27" t="s" s="3">
+    <row r="27" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A27" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B27" s="4">
@@ -5499,11 +5595,11 @@
       <c r="D27" s="4">
         <v>45436</v>
       </c>
-      <c r="E27" t="s" s="3">
+      <c r="E27" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" t="s" s="3">
+      <c r="G27" s="3" t="s">
         <v>183</v>
       </c>
       <c r="H27" s="5"/>
@@ -5528,12 +5624,12 @@
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
-      <c r="AD27" t="s" s="6">
+      <c r="AD27" s="6" t="s">
         <v>184</v>
       </c>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
-      <c r="AG27" t="s" s="3">
+      <c r="AG27" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AH27" s="5"/>
@@ -5542,8 +5638,8 @@
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
     </row>
-    <row r="28" ht="17.7" customHeight="1">
-      <c r="A28" t="s" s="3">
+    <row r="28" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A28" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B28" s="4">
@@ -5555,11 +5651,11 @@
       <c r="D28" s="4">
         <v>45436</v>
       </c>
-      <c r="E28" t="s" s="3">
+      <c r="E28" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F28" s="5"/>
-      <c r="G28" t="s" s="3">
+      <c r="G28" s="3" t="s">
         <v>186</v>
       </c>
       <c r="H28" s="5"/>
@@ -5567,14 +5663,14 @@
       <c r="J28" s="5"/>
       <c r="K28" s="3"/>
       <c r="L28" s="5"/>
-      <c r="M28" t="s" s="7">
+      <c r="M28" s="7" t="s">
         <v>187</v>
       </c>
       <c r="N28" s="5"/>
-      <c r="O28" t="s" s="7">
+      <c r="O28" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P28" t="s" s="7">
+      <c r="P28" s="7" t="s">
         <v>187</v>
       </c>
       <c r="Q28" s="5"/>
@@ -5600,8 +5696,8 @@
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
     </row>
-    <row r="29" ht="17.7" customHeight="1">
-      <c r="A29" t="s" s="3">
+    <row r="29" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A29" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B29" s="4">
@@ -5609,7 +5705,7 @@
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" t="s" s="3">
+      <c r="E29" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F29" s="5"/>
@@ -5625,7 +5721,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
-      <c r="S29" t="s" s="3">
+      <c r="S29" s="3" t="s">
         <v>189</v>
       </c>
       <c r="T29" s="5"/>
@@ -5648,8 +5744,8 @@
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
     </row>
-    <row r="30" ht="18.25" customHeight="1">
-      <c r="A30" t="s" s="3">
+    <row r="30" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A30" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B30" s="4">
@@ -5661,11 +5757,11 @@
       <c r="D30" s="4">
         <v>45436</v>
       </c>
-      <c r="E30" t="s" s="3">
+      <c r="E30" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F30" s="3"/>
-      <c r="G30" t="s" s="3">
+      <c r="G30" s="3" t="s">
         <v>191</v>
       </c>
       <c r="H30" s="5"/>
@@ -5673,14 +5769,14 @@
       <c r="J30" s="5"/>
       <c r="K30" s="3"/>
       <c r="L30" s="5"/>
-      <c r="M30" t="s" s="3">
+      <c r="M30" s="3" t="s">
         <v>192</v>
       </c>
       <c r="N30" s="5"/>
-      <c r="O30" t="s" s="3">
+      <c r="O30" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="P30" t="s" s="3">
+      <c r="P30" s="3" t="s">
         <v>192</v>
       </c>
       <c r="Q30" s="5"/>
@@ -5696,28 +5792,28 @@
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
-      <c r="AD30" t="s" s="6">
+      <c r="AD30" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AE30" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF30" t="s" s="3">
+      <c r="AE30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF30" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AG30" s="5"/>
-      <c r="AH30" t="s" s="3">
+      <c r="AH30" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
-      <c r="AK30" t="s" s="3">
+      <c r="AK30" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL30" s="5"/>
     </row>
-    <row r="31" ht="17.7" customHeight="1">
-      <c r="A31" t="s" s="3">
+    <row r="31" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A31" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B31" s="4">
@@ -5725,7 +5821,7 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" t="s" s="3">
+      <c r="E31" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F31" s="5"/>
@@ -5741,17 +5837,17 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
-      <c r="S31" t="s" s="3">
+      <c r="S31" s="3" t="s">
         <v>195</v>
       </c>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
-      <c r="X31" t="s" s="3">
+      <c r="X31" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="Y31" t="s" s="3">
+      <c r="Y31" s="3" t="s">
         <v>197</v>
       </c>
       <c r="Z31" s="5"/>
@@ -5768,8 +5864,8 @@
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
     </row>
-    <row r="32" ht="17.7" customHeight="1">
-      <c r="A32" t="s" s="3">
+    <row r="32" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A32" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B32" s="4">
@@ -5777,7 +5873,7 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" t="s" s="3">
+      <c r="E32" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F32" s="5"/>
@@ -5793,7 +5889,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
-      <c r="S32" t="s" s="3">
+      <c r="S32" s="3" t="s">
         <v>199</v>
       </c>
       <c r="T32" s="5"/>
@@ -5816,8 +5912,8 @@
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
     </row>
-    <row r="33" ht="18.25" customHeight="1">
-      <c r="A33" t="s" s="3">
+    <row r="33" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A33" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B33" s="4">
@@ -5829,11 +5925,11 @@
       <c r="D33" s="4">
         <v>45440</v>
       </c>
-      <c r="E33" t="s" s="3">
+      <c r="E33" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F33" s="5"/>
-      <c r="G33" t="s" s="3">
+      <c r="G33" s="3" t="s">
         <v>201</v>
       </c>
       <c r="H33" s="5"/>
@@ -5858,17 +5954,17 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
-      <c r="AD33" t="s" s="6">
+      <c r="AD33" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AE33" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF33" t="s" s="3">
+      <c r="AE33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF33" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AG33" s="5"/>
-      <c r="AH33" t="s" s="3">
+      <c r="AH33" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI33" s="5"/>
@@ -5876,8 +5972,8 @@
       <c r="AK33" s="5"/>
       <c r="AL33" s="5"/>
     </row>
-    <row r="34" ht="17.7" customHeight="1">
-      <c r="A34" t="s" s="3">
+    <row r="34" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A34" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B34" s="4">
@@ -5885,7 +5981,7 @@
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" t="s" s="3">
+      <c r="E34" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F34" s="5"/>
@@ -5901,7 +5997,7 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
-      <c r="S34" t="s" s="3">
+      <c r="S34" s="3" t="s">
         <v>204</v>
       </c>
       <c r="T34" s="5"/>
@@ -5924,8 +6020,8 @@
       <c r="AK34" s="5"/>
       <c r="AL34" s="5"/>
     </row>
-    <row r="35" ht="17.7" customHeight="1">
-      <c r="A35" t="s" s="3">
+    <row r="35" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A35" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B35" s="4"/>
@@ -5935,11 +6031,11 @@
       <c r="D35" s="4">
         <v>45443</v>
       </c>
-      <c r="E35" t="s" s="3">
+      <c r="E35" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F35" s="5"/>
-      <c r="G35" t="s" s="3">
+      <c r="G35" s="3" t="s">
         <v>206</v>
       </c>
       <c r="H35" s="5"/>
@@ -5974,14 +6070,14 @@
       <c r="AK35" s="5"/>
       <c r="AL35" s="5"/>
     </row>
-    <row r="36" ht="17.7" customHeight="1">
-      <c r="A36" t="s" s="3">
+    <row r="36" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A36" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" t="s" s="3">
+      <c r="E36" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F36" s="5"/>
@@ -5997,7 +6093,7 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
-      <c r="S36" t="s" s="3">
+      <c r="S36" s="3" t="s">
         <v>208</v>
       </c>
       <c r="T36" s="5"/>
@@ -6020,8 +6116,8 @@
       <c r="AK36" s="5"/>
       <c r="AL36" s="5"/>
     </row>
-    <row r="37" ht="18.25" customHeight="1">
-      <c r="A37" t="s" s="3">
+    <row r="37" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A37" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B37" s="4"/>
@@ -6031,11 +6127,11 @@
       <c r="D37" s="4">
         <v>45418</v>
       </c>
-      <c r="E37" t="s" s="3">
+      <c r="E37" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F37" s="5"/>
-      <c r="G37" t="s" s="3">
+      <c r="G37" s="3" t="s">
         <v>210</v>
       </c>
       <c r="H37" s="5"/>
@@ -6060,34 +6156,34 @@
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
-      <c r="AD37" t="s" s="6">
+      <c r="AD37" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="AE37" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF37" t="s" s="3">
+      <c r="AE37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF37" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="AG37" t="s" s="3">
+      <c r="AG37" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AH37" s="5"/>
       <c r="AI37" s="5"/>
       <c r="AJ37" s="5"/>
-      <c r="AK37" t="s" s="3">
+      <c r="AK37" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" ht="17.7" customHeight="1">
-      <c r="A38" t="s" s="3">
+    <row r="38" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A38" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" t="s" s="3">
+      <c r="E38" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F38" s="5"/>
@@ -6103,7 +6199,7 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
-      <c r="S38" t="s" s="3">
+      <c r="S38" s="3" t="s">
         <v>214</v>
       </c>
       <c r="T38" s="5"/>
@@ -6126,18 +6222,18 @@
       <c r="AK38" s="5"/>
       <c r="AL38" s="5"/>
     </row>
-    <row r="39" ht="18.25" customHeight="1">
-      <c r="A39" t="s" s="3">
+    <row r="39" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A39" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" t="s" s="3">
+      <c r="E39" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F39" s="5"/>
-      <c r="G39" t="s" s="3">
+      <c r="G39" s="3" t="s">
         <v>216</v>
       </c>
       <c r="H39" s="5"/>
@@ -6162,30 +6258,30 @@
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
-      <c r="AD39" t="s" s="6">
+      <c r="AD39" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="AE39" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF39" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG39" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH39" t="s" s="3">
+      <c r="AE39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH39" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5"/>
-      <c r="AK39" t="s" s="3">
+      <c r="AK39" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL39" s="5"/>
     </row>
-    <row r="40" ht="18.25" customHeight="1">
-      <c r="A40" t="s" s="3">
+    <row r="40" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A40" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B40" s="4"/>
@@ -6195,11 +6291,11 @@
       <c r="D40" s="4">
         <v>45510</v>
       </c>
-      <c r="E40" t="s" s="3">
+      <c r="E40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F40" s="5"/>
-      <c r="G40" t="s" s="3">
+      <c r="G40" s="3" t="s">
         <v>219</v>
       </c>
       <c r="H40" s="5"/>
@@ -6224,30 +6320,30 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
-      <c r="AD40" t="s" s="6">
+      <c r="AD40" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="AE40" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF40" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG40" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH40" t="s" s="3">
+      <c r="AE40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH40" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI40" s="5"/>
       <c r="AJ40" s="5"/>
-      <c r="AK40" t="s" s="3">
+      <c r="AK40" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL40" s="5"/>
     </row>
-    <row r="41" ht="18.25" customHeight="1">
-      <c r="A41" t="s" s="3">
+    <row r="41" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A41" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B41" s="4"/>
@@ -6257,11 +6353,11 @@
       <c r="D41" s="4">
         <v>45456</v>
       </c>
-      <c r="E41" t="s" s="3">
+      <c r="E41" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F41" s="5"/>
-      <c r="G41" t="s" s="3">
+      <c r="G41" s="3" t="s">
         <v>222</v>
       </c>
       <c r="H41" s="5"/>
@@ -6286,30 +6382,30 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
-      <c r="AD41" t="s" s="6">
+      <c r="AD41" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="AE41" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF41" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG41" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH41" t="s" s="3">
+      <c r="AE41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH41" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI41" s="5"/>
       <c r="AJ41" s="5"/>
-      <c r="AK41" t="s" s="3">
+      <c r="AK41" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL41" s="5"/>
     </row>
-    <row r="42" ht="18.25" customHeight="1">
-      <c r="A42" t="s" s="3">
+    <row r="42" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A42" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B42" s="4"/>
@@ -6319,11 +6415,11 @@
       <c r="D42" s="4">
         <v>45458</v>
       </c>
-      <c r="E42" t="s" s="3">
+      <c r="E42" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F42" s="5"/>
-      <c r="G42" t="s" s="3">
+      <c r="G42" s="3" t="s">
         <v>225</v>
       </c>
       <c r="H42" s="5"/>
@@ -6348,30 +6444,30 @@
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
-      <c r="AD42" t="s" s="6">
+      <c r="AD42" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="AE42" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF42" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG42" t="s" s="3">
+      <c r="AE42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG42" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AH42" t="s" s="3">
+      <c r="AH42" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
-      <c r="AK42" t="s" s="3">
+      <c r="AK42" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL42" s="5"/>
     </row>
-    <row r="43" ht="18.25" customHeight="1">
-      <c r="A43" t="s" s="3">
+    <row r="43" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A43" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B43" s="4"/>
@@ -6381,11 +6477,11 @@
       <c r="D43" s="4">
         <v>45463</v>
       </c>
-      <c r="E43" t="s" s="3">
+      <c r="E43" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F43" s="5"/>
-      <c r="G43" t="s" s="3">
+      <c r="G43" s="3" t="s">
         <v>229</v>
       </c>
       <c r="H43" s="5"/>
@@ -6410,19 +6506,19 @@
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
-      <c r="AD43" t="s" s="6">
+      <c r="AD43" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="AE43" t="s" s="3">
+      <c r="AE43" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AF43" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG43" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH43" t="s" s="3">
+      <c r="AF43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH43" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI43" s="5"/>
@@ -6430,18 +6526,18 @@
       <c r="AK43" s="5"/>
       <c r="AL43" s="5"/>
     </row>
-    <row r="44" ht="17.7" customHeight="1">
-      <c r="A44" t="s" s="3">
+    <row r="44" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A44" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="E44" t="s" s="3">
+      <c r="E44" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F44" s="5"/>
-      <c r="G44" t="s" s="3">
+      <c r="G44" s="3" t="s">
         <v>232</v>
       </c>
       <c r="H44" s="5"/>
@@ -6476,22 +6572,22 @@
       <c r="AK44" s="5"/>
       <c r="AL44" s="5"/>
     </row>
-    <row r="45" ht="18.25" customHeight="1">
-      <c r="A45" t="s" s="3">
+    <row r="45" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A45" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B45" s="4"/>
-      <c r="C45" t="s" s="3">
+      <c r="C45" s="3" t="s">
         <v>234</v>
       </c>
       <c r="D45" s="4">
         <v>45473</v>
       </c>
-      <c r="E45" t="s" s="3">
+      <c r="E45" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F45" s="5"/>
-      <c r="G45" t="s" s="3">
+      <c r="G45" s="3" t="s">
         <v>235</v>
       </c>
       <c r="H45" s="5"/>
@@ -6516,30 +6612,30 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
-      <c r="AD45" t="s" s="6">
+      <c r="AD45" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="AE45" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF45" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG45" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH45" t="s" s="3">
+      <c r="AE45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH45" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI45" s="5"/>
       <c r="AJ45" s="5"/>
-      <c r="AK45" t="s" s="3">
+      <c r="AK45" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL45" s="5"/>
     </row>
-    <row r="46" ht="18.25" customHeight="1">
-      <c r="A46" t="s" s="3">
+    <row r="46" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A46" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B46" s="4"/>
@@ -6549,11 +6645,11 @@
       <c r="D46" s="4">
         <v>45430</v>
       </c>
-      <c r="E46" t="s" s="3">
+      <c r="E46" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F46" s="5"/>
-      <c r="G46" t="s" s="3">
+      <c r="G46" s="3" t="s">
         <v>238</v>
       </c>
       <c r="H46" s="5"/>
@@ -6578,30 +6674,30 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
-      <c r="AD46" t="s" s="6">
+      <c r="AD46" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="AE46" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF46" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG46" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH46" t="s" s="3">
+      <c r="AE46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH46" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI46" s="5"/>
       <c r="AJ46" s="5"/>
-      <c r="AK46" t="s" s="3">
+      <c r="AK46" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL46" s="5"/>
     </row>
-    <row r="47" ht="18.25" customHeight="1">
-      <c r="A47" t="s" s="3">
+    <row r="47" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A47" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B47" s="4"/>
@@ -6611,11 +6707,11 @@
       <c r="D47" s="4">
         <v>45470</v>
       </c>
-      <c r="E47" t="s" s="3">
+      <c r="E47" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F47" s="5"/>
-      <c r="G47" t="s" s="3">
+      <c r="G47" s="3" t="s">
         <v>241</v>
       </c>
       <c r="H47" s="5"/>
@@ -6640,16 +6736,16 @@
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
-      <c r="AD47" t="s" s="6">
+      <c r="AD47" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="AE47" t="s" s="3">
+      <c r="AE47" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AF47" t="s" s="3">
+      <c r="AF47" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AG47" t="s" s="3">
+      <c r="AG47" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AH47" s="5"/>
@@ -6658,8 +6754,8 @@
       <c r="AK47" s="5"/>
       <c r="AL47" s="5"/>
     </row>
-    <row r="48" ht="18.25" customHeight="1">
-      <c r="A48" t="s" s="3">
+    <row r="48" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A48" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B48" s="4"/>
@@ -6669,11 +6765,11 @@
       <c r="D48" s="4">
         <v>45572</v>
       </c>
-      <c r="E48" t="s" s="3">
+      <c r="E48" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F48" s="5"/>
-      <c r="G48" t="s" s="3">
+      <c r="G48" s="3" t="s">
         <v>244</v>
       </c>
       <c r="H48" s="5"/>
@@ -6698,16 +6794,16 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
       <c r="AC48" s="5"/>
-      <c r="AD48" t="s" s="6">
+      <c r="AD48" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="AE48" t="s" s="3">
+      <c r="AE48" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AF48" t="s" s="3">
+      <c r="AF48" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AG48" t="s" s="3">
+      <c r="AG48" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AH48" s="5"/>
@@ -6716,8 +6812,8 @@
       <c r="AK48" s="5"/>
       <c r="AL48" s="5"/>
     </row>
-    <row r="49" ht="18.25" customHeight="1">
-      <c r="A49" t="s" s="3">
+    <row r="49" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A49" s="3" t="s">
         <v>246</v>
       </c>
       <c r="B49" s="4"/>
@@ -6727,11 +6823,11 @@
       <c r="D49" s="4">
         <v>45490</v>
       </c>
-      <c r="E49" t="s" s="3">
+      <c r="E49" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F49" s="5"/>
-      <c r="G49" t="s" s="3">
+      <c r="G49" s="3" t="s">
         <v>247</v>
       </c>
       <c r="H49" s="5"/>
@@ -6756,13 +6852,13 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
-      <c r="AD49" t="s" s="6">
+      <c r="AD49" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="AE49" t="s" s="3">
+      <c r="AE49" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AF49" t="s" s="3">
+      <c r="AF49" s="3" t="s">
         <v>227</v>
       </c>
       <c r="AG49" s="5"/>
@@ -6772,8 +6868,8 @@
       <c r="AK49" s="5"/>
       <c r="AL49" s="5"/>
     </row>
-    <row r="50" ht="18.25" customHeight="1">
-      <c r="A50" t="s" s="3">
+    <row r="50" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A50" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B50" s="4"/>
@@ -6783,11 +6879,11 @@
       <c r="D50" s="4">
         <v>45492</v>
       </c>
-      <c r="E50" t="s" s="3">
+      <c r="E50" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F50" s="5"/>
-      <c r="G50" t="s" s="3">
+      <c r="G50" s="3" t="s">
         <v>250</v>
       </c>
       <c r="H50" s="5"/>
@@ -6812,30 +6908,30 @@
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
-      <c r="AD50" t="s" s="6">
+      <c r="AD50" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AE50" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF50" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG50" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH50" t="s" s="3">
+      <c r="AE50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH50" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI50" s="5"/>
       <c r="AJ50" s="5"/>
-      <c r="AK50" t="s" s="3">
+      <c r="AK50" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL50" s="5"/>
     </row>
-    <row r="51" ht="18.25" customHeight="1">
-      <c r="A51" t="s" s="3">
+    <row r="51" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A51" s="3" t="s">
         <v>252</v>
       </c>
       <c r="B51" s="4"/>
@@ -6845,11 +6941,11 @@
       <c r="D51" s="4">
         <v>45418</v>
       </c>
-      <c r="E51" t="s" s="3">
+      <c r="E51" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F51" s="5"/>
-      <c r="G51" t="s" s="3">
+      <c r="G51" s="3" t="s">
         <v>253</v>
       </c>
       <c r="H51" s="5"/>
@@ -6874,30 +6970,30 @@
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
-      <c r="AD51" t="s" s="6">
+      <c r="AD51" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="AE51" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF51" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG51" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH51" t="s" s="3">
+      <c r="AE51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH51" s="3" t="s">
         <v>255</v>
       </c>
       <c r="AI51" s="5"/>
       <c r="AJ51" s="5"/>
-      <c r="AK51" t="s" s="3">
+      <c r="AK51" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL51" s="5"/>
     </row>
-    <row r="52" ht="17.7" customHeight="1">
-      <c r="A52" t="s" s="3">
+    <row r="52" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A52" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B52" s="4"/>
@@ -6907,27 +7003,27 @@
       <c r="D52" s="4">
         <v>45418</v>
       </c>
-      <c r="E52" t="s" s="3">
+      <c r="E52" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F52" s="5"/>
-      <c r="G52" t="s" s="3">
+      <c r="G52" s="3" t="s">
         <v>257</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="I52" t="s" s="3">
+      <c r="I52" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="J52" t="s" s="3">
+      <c r="J52" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="K52" t="s" s="3">
+      <c r="K52" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="L52" t="s" s="3">
+      <c r="L52" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="M52" t="s" s="3">
+      <c r="M52" s="3" t="s">
         <v>262</v>
       </c>
       <c r="N52" s="5"/>
@@ -6946,11 +7042,11 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
-      <c r="AD52" t="s" s="6">
+      <c r="AD52" s="6" t="s">
         <v>263</v>
       </c>
       <c r="AE52" s="5"/>
-      <c r="AF52" t="s" s="3">
+      <c r="AF52" s="3" t="s">
         <v>212</v>
       </c>
       <c r="AG52" s="5"/>
@@ -6960,14 +7056,14 @@
       <c r="AK52" s="5"/>
       <c r="AL52" s="5"/>
     </row>
-    <row r="53" ht="17.7" customHeight="1">
-      <c r="A53" t="s" s="3">
+    <row r="53" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A53" s="3" t="s">
         <v>264</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" t="s" s="3">
+      <c r="E53" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F53" s="5"/>
@@ -6983,7 +7079,7 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
-      <c r="S53" t="s" s="3">
+      <c r="S53" s="3" t="s">
         <v>265</v>
       </c>
       <c r="T53" s="5"/>
@@ -7006,8 +7102,8 @@
       <c r="AK53" s="5"/>
       <c r="AL53" s="5"/>
     </row>
-    <row r="54" ht="18.25" customHeight="1">
-      <c r="A54" t="s" s="3">
+    <row r="54" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A54" s="3" t="s">
         <v>266</v>
       </c>
       <c r="B54" s="4"/>
@@ -7017,27 +7113,27 @@
       <c r="D54" s="4">
         <v>45359</v>
       </c>
-      <c r="E54" t="s" s="3">
+      <c r="E54" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F54" s="5"/>
-      <c r="G54" t="s" s="3">
+      <c r="G54" s="3" t="s">
         <v>267</v>
       </c>
       <c r="H54" s="5"/>
-      <c r="I54" t="s" s="3">
+      <c r="I54" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="J54" t="s" s="3">
+      <c r="J54" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="K54" t="s" s="3">
+      <c r="K54" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="L54" t="s" s="3">
+      <c r="L54" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="M54" t="s" s="3">
+      <c r="M54" s="3" t="s">
         <v>272</v>
       </c>
       <c r="N54" s="5"/>
@@ -7056,40 +7152,40 @@
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
-      <c r="AD54" t="s" s="6">
+      <c r="AD54" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="AE54" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF54" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG54" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH54" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AI54" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AJ54" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AK54" t="s" s="3">
+      <c r="AE54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK54" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL54" s="5"/>
     </row>
-    <row r="55" ht="17.7" customHeight="1">
-      <c r="A55" t="s" s="3">
+    <row r="55" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A55" s="3" t="s">
         <v>274</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" t="s" s="3">
+      <c r="E55" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F55" s="5"/>
@@ -7105,7 +7201,7 @@
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
-      <c r="S55" t="s" s="3">
+      <c r="S55" s="3" t="s">
         <v>275</v>
       </c>
       <c r="T55" s="5"/>
@@ -7128,14 +7224,14 @@
       <c r="AK55" s="5"/>
       <c r="AL55" s="5"/>
     </row>
-    <row r="56" ht="17.7" customHeight="1">
-      <c r="A56" t="s" s="3">
+    <row r="56" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A56" s="3" t="s">
         <v>276</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="E56" t="s" s="3">
+      <c r="E56" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F56" s="5"/>
@@ -7151,7 +7247,7 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
-      <c r="S56" t="s" s="3">
+      <c r="S56" s="3" t="s">
         <v>277</v>
       </c>
       <c r="T56" s="5"/>
@@ -7174,8 +7270,8 @@
       <c r="AK56" s="5"/>
       <c r="AL56" s="5"/>
     </row>
-    <row r="57" ht="18.25" customHeight="1">
-      <c r="A57" t="s" s="3">
+    <row r="57" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A57" s="3" t="s">
         <v>278</v>
       </c>
       <c r="B57" s="4"/>
@@ -7185,27 +7281,27 @@
       <c r="D57" s="4">
         <v>45421</v>
       </c>
-      <c r="E57" t="s" s="3">
+      <c r="E57" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F57" s="5"/>
-      <c r="G57" t="s" s="3">
+      <c r="G57" s="3" t="s">
         <v>279</v>
       </c>
       <c r="H57" s="5"/>
-      <c r="I57" t="s" s="3">
+      <c r="I57" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="J57" t="s" s="3">
+      <c r="J57" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="K57" t="s" s="3">
+      <c r="K57" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="L57" t="s" s="6">
+      <c r="L57" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="M57" t="s" s="3">
+      <c r="M57" s="3" t="s">
         <v>284</v>
       </c>
       <c r="N57" s="5"/>
@@ -7224,40 +7320,40 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
-      <c r="AD57" t="s" s="6">
+      <c r="AD57" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="AE57" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF57" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG57" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH57" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AI57" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AJ57" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AK57" t="s" s="3">
+      <c r="AE57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK57" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL57" s="5"/>
     </row>
-    <row r="58" ht="17.7" customHeight="1">
-      <c r="A58" t="s" s="3">
+    <row r="58" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A58" s="3" t="s">
         <v>286</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
-      <c r="E58" t="s" s="3">
+      <c r="E58" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F58" s="5"/>
@@ -7273,7 +7369,7 @@
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
-      <c r="S58" t="s" s="3">
+      <c r="S58" s="3" t="s">
         <v>287</v>
       </c>
       <c r="T58" s="5"/>
@@ -7296,14 +7392,14 @@
       <c r="AK58" s="5"/>
       <c r="AL58" s="5"/>
     </row>
-    <row r="59" ht="17.7" customHeight="1">
-      <c r="A59" t="s" s="3">
+    <row r="59" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A59" s="3" t="s">
         <v>288</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
-      <c r="E59" t="s" s="3">
+      <c r="E59" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F59" s="5"/>
@@ -7319,7 +7415,7 @@
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
-      <c r="S59" t="s" s="3">
+      <c r="S59" s="3" t="s">
         <v>289</v>
       </c>
       <c r="T59" s="5"/>
@@ -7342,8 +7438,8 @@
       <c r="AK59" s="5"/>
       <c r="AL59" s="5"/>
     </row>
-    <row r="60" ht="18.25" customHeight="1">
-      <c r="A60" t="s" s="3">
+    <row r="60" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A60" s="3" t="s">
         <v>290</v>
       </c>
       <c r="B60" s="4"/>
@@ -7353,27 +7449,27 @@
       <c r="D60" s="4">
         <v>45555</v>
       </c>
-      <c r="E60" t="s" s="3">
+      <c r="E60" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F60" s="5"/>
-      <c r="G60" t="s" s="3">
+      <c r="G60" s="3" t="s">
         <v>291</v>
       </c>
       <c r="H60" s="5"/>
-      <c r="I60" t="s" s="3">
+      <c r="I60" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="J60" t="s" s="3">
+      <c r="J60" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="K60" t="s" s="3">
+      <c r="K60" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="L60" t="s" s="6">
+      <c r="L60" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="M60" t="s" s="3">
+      <c r="M60" s="3" t="s">
         <v>296</v>
       </c>
       <c r="N60" s="5"/>
@@ -7392,34 +7488,34 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
-      <c r="AD60" t="s" s="6">
+      <c r="AD60" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="AE60" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF60" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG60" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH60" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AI60" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AJ60" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AK60" t="s" s="3">
+      <c r="AE60" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF60" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG60" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH60" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI60" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ60" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK60" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL60" s="5"/>
     </row>
-    <row r="61" ht="18.25" customHeight="1">
-      <c r="A61" t="s" s="3">
+    <row r="61" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A61" s="3" t="s">
         <v>298</v>
       </c>
       <c r="B61" s="4"/>
@@ -7429,27 +7525,27 @@
       <c r="D61" s="4">
         <v>45559</v>
       </c>
-      <c r="E61" t="s" s="3">
+      <c r="E61" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F61" s="5"/>
-      <c r="G61" t="s" s="3">
+      <c r="G61" s="3" t="s">
         <v>299</v>
       </c>
       <c r="H61" s="5"/>
-      <c r="I61" t="s" s="3">
+      <c r="I61" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="J61" t="s" s="3">
+      <c r="J61" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="K61" t="s" s="3">
+      <c r="K61" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="L61" t="s" s="6">
+      <c r="L61" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="M61" t="s" s="3">
+      <c r="M61" s="3" t="s">
         <v>304</v>
       </c>
       <c r="N61" s="5"/>
@@ -7468,60 +7564,60 @@
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
-      <c r="AD61" t="s" s="6">
+      <c r="AD61" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="AE61" t="s" s="3">
+      <c r="AE61" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="AF61" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG61" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH61" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AI61" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AJ61" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AK61" t="s" s="3">
+      <c r="AF61" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG61" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH61" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI61" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ61" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK61" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL61" s="5"/>
     </row>
-    <row r="62" ht="18.25" customHeight="1">
-      <c r="A62" t="s" s="3">
+    <row r="62" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A62" s="3" t="s">
         <v>306</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
-      <c r="E62" t="s" s="3">
+      <c r="E62" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F62" s="5"/>
-      <c r="G62" t="s" s="3">
+      <c r="G62" s="3" t="s">
         <v>307</v>
       </c>
       <c r="H62" s="5"/>
-      <c r="I62" t="s" s="3">
+      <c r="I62" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="J62" t="s" s="3">
+      <c r="J62" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="K62" t="s" s="3">
+      <c r="K62" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="L62" t="s" s="6">
+      <c r="L62" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M62" t="s" s="3">
+      <c r="M62" s="3" t="s">
         <v>312</v>
       </c>
       <c r="N62" s="5"/>
@@ -7540,17 +7636,17 @@
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
-      <c r="AD62" t="s" s="6">
+      <c r="AD62" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="AE62" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF62" t="s" s="3">
+      <c r="AE62" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF62" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AG62" s="5"/>
-      <c r="AH62" t="s" s="3">
+      <c r="AH62" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI62" s="5"/>
@@ -7558,8 +7654,8 @@
       <c r="AK62" s="5"/>
       <c r="AL62" s="5"/>
     </row>
-    <row r="63" ht="18.25" customHeight="1">
-      <c r="A63" t="s" s="3">
+    <row r="63" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A63" s="3" t="s">
         <v>314</v>
       </c>
       <c r="B63" s="4"/>
@@ -7569,25 +7665,25 @@
       <c r="D63" s="4">
         <v>45590</v>
       </c>
-      <c r="E63" t="s" s="3">
+      <c r="E63" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F63" s="5"/>
-      <c r="G63" t="s" s="3">
+      <c r="G63" s="3" t="s">
         <v>315</v>
       </c>
       <c r="H63" s="5"/>
-      <c r="I63" t="s" s="3">
+      <c r="I63" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J63" t="s" s="3">
+      <c r="J63" s="3" t="s">
         <v>317</v>
       </c>
       <c r="K63" s="3"/>
-      <c r="L63" t="s" s="6">
+      <c r="L63" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="M63" t="s" s="3">
+      <c r="M63" s="3" t="s">
         <v>319</v>
       </c>
       <c r="N63" s="5"/>
@@ -7606,32 +7702,32 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
-      <c r="AD63" t="s" s="6">
+      <c r="AD63" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="AE63" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF63" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG63" t="s" s="3">
+      <c r="AE63" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF63" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG63" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AH63" s="5"/>
-      <c r="AI63" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AJ63" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AK63" t="s" s="3">
+      <c r="AI63" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ63" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK63" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL63" s="5"/>
     </row>
-    <row r="64" ht="17.7" customHeight="1">
-      <c r="A64" t="s" s="3">
+    <row r="64" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A64" s="3" t="s">
         <v>321</v>
       </c>
       <c r="B64" s="4"/>
@@ -7641,11 +7737,11 @@
       <c r="D64" s="4">
         <v>45423</v>
       </c>
-      <c r="E64" t="s" s="3">
+      <c r="E64" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F64" s="5"/>
-      <c r="G64" t="s" s="3">
+      <c r="G64" s="3" t="s">
         <v>322</v>
       </c>
       <c r="H64" s="5"/>
@@ -7680,8 +7776,8 @@
       <c r="AK64" s="5"/>
       <c r="AL64" s="5"/>
     </row>
-    <row r="65" ht="18.25" customHeight="1">
-      <c r="A65" t="s" s="3">
+    <row r="65" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A65" s="3" t="s">
         <v>323</v>
       </c>
       <c r="B65" s="4"/>
@@ -7691,27 +7787,27 @@
       <c r="D65" s="4">
         <v>45620</v>
       </c>
-      <c r="E65" t="s" s="3">
+      <c r="E65" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F65" s="5"/>
-      <c r="G65" t="s" s="3">
+      <c r="G65" s="3" t="s">
         <v>324</v>
       </c>
       <c r="H65" s="5"/>
-      <c r="I65" t="s" s="3">
+      <c r="I65" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="J65" t="s" s="3">
+      <c r="J65" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="K65" t="s" s="3">
+      <c r="K65" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="L65" t="s" s="6">
+      <c r="L65" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="M65" t="s" s="3">
+      <c r="M65" s="3" t="s">
         <v>328</v>
       </c>
       <c r="N65" s="5"/>
@@ -7730,28 +7826,28 @@
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
-      <c r="AD65" t="s" s="6">
+      <c r="AD65" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="AE65" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF65" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG65" t="s" s="3">
+      <c r="AE65" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF65" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG65" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AH65" s="5"/>
       <c r="AI65" s="5"/>
       <c r="AJ65" s="5"/>
-      <c r="AK65" t="s" s="3">
+      <c r="AK65" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL65" s="5"/>
     </row>
-    <row r="66" ht="17.7" customHeight="1">
-      <c r="A66" t="s" s="3">
+    <row r="66" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A66" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B66" s="4"/>
@@ -7761,27 +7857,27 @@
       <c r="D66" s="4">
         <v>45619</v>
       </c>
-      <c r="E66" t="s" s="3">
+      <c r="E66" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F66" s="5"/>
-      <c r="G66" t="s" s="3">
+      <c r="G66" s="3" t="s">
         <v>331</v>
       </c>
       <c r="H66" s="5"/>
-      <c r="I66" t="s" s="3">
+      <c r="I66" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="J66" t="s" s="3">
+      <c r="J66" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="K66" t="s" s="3">
+      <c r="K66" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="L66" t="s" s="6">
+      <c r="L66" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="M66" t="s" s="7">
+      <c r="M66" s="7" t="s">
         <v>336</v>
       </c>
       <c r="N66" s="5"/>
@@ -7800,34 +7896,34 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
-      <c r="AD66" t="s" s="6">
+      <c r="AD66" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="AE66" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF66" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG66" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH66" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AI66" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AJ66" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AK66" t="s" s="3">
+      <c r="AE66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK66" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL66" s="5"/>
     </row>
-    <row r="67" ht="17.7" customHeight="1">
-      <c r="A67" t="s" s="3">
+    <row r="67" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A67" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B67" s="4"/>
@@ -7837,27 +7933,27 @@
       <c r="D67" s="4">
         <v>45624</v>
       </c>
-      <c r="E67" t="s" s="3">
+      <c r="E67" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F67" s="5"/>
-      <c r="G67" t="s" s="3">
+      <c r="G67" s="3" t="s">
         <v>339</v>
       </c>
       <c r="H67" s="5"/>
-      <c r="I67" t="s" s="3">
+      <c r="I67" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="J67" t="s" s="3">
+      <c r="J67" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="K67" t="s" s="3">
+      <c r="K67" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="L67" t="s" s="6">
+      <c r="L67" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="M67" t="s" s="7">
+      <c r="M67" s="7" t="s">
         <v>344</v>
       </c>
       <c r="N67" s="5"/>
@@ -7876,32 +7972,32 @@
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
-      <c r="AD67" t="s" s="6">
+      <c r="AD67" s="6" t="s">
         <v>345</v>
       </c>
       <c r="AE67" s="5"/>
-      <c r="AF67" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG67" t="s" s="3">
+      <c r="AF67" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG67" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AH67" s="5"/>
       <c r="AI67" s="5"/>
       <c r="AJ67" s="5"/>
-      <c r="AK67" t="s" s="3">
+      <c r="AK67" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL67" s="5"/>
     </row>
-    <row r="68" ht="17.7" customHeight="1">
-      <c r="A68" t="s" s="3">
+    <row r="68" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A68" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" t="s" s="3">
+      <c r="E68" s="3" t="s">
         <v>347</v>
       </c>
       <c r="F68" s="5"/>
@@ -7917,7 +8013,7 @@
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
-      <c r="S68" t="s" s="3">
+      <c r="S68" s="3" t="s">
         <v>348</v>
       </c>
       <c r="T68" s="5"/>
@@ -7940,14 +8036,14 @@
       <c r="AK68" s="5"/>
       <c r="AL68" s="5"/>
     </row>
-    <row r="69" ht="17.7" customHeight="1">
-      <c r="A69" t="s" s="3">
+    <row r="69" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A69" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
-      <c r="E69" t="s" s="3">
+      <c r="E69" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F69" s="5"/>
@@ -7963,7 +8059,7 @@
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
-      <c r="S69" t="s" s="3">
+      <c r="S69" s="3" t="s">
         <v>350</v>
       </c>
       <c r="T69" s="5"/>
@@ -7986,8 +8082,8 @@
       <c r="AK69" s="5"/>
       <c r="AL69" s="5"/>
     </row>
-    <row r="70" ht="18.25" customHeight="1">
-      <c r="A70" t="s" s="3">
+    <row r="70" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A70" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B70" s="4"/>
@@ -7997,27 +8093,27 @@
       <c r="D70" s="4">
         <v>45638</v>
       </c>
-      <c r="E70" t="s" s="3">
+      <c r="E70" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F70" s="5"/>
-      <c r="G70" t="s" s="3">
+      <c r="G70" s="3" t="s">
         <v>352</v>
       </c>
       <c r="H70" s="5"/>
-      <c r="I70" t="s" s="3">
+      <c r="I70" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="J70" t="s" s="3">
+      <c r="J70" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="K70" t="s" s="3">
+      <c r="K70" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="L70" t="s" s="6">
+      <c r="L70" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="M70" t="s" s="3">
+      <c r="M70" s="3" t="s">
         <v>357</v>
       </c>
       <c r="N70" s="5"/>
@@ -8036,26 +8132,26 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
       <c r="AC70" s="5"/>
-      <c r="AD70" t="s" s="6">
+      <c r="AD70" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="AE70" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF70" t="s" s="3">
+      <c r="AE70" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF70" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AG70" s="5"/>
       <c r="AH70" s="5"/>
       <c r="AI70" s="5"/>
       <c r="AJ70" s="5"/>
-      <c r="AK70" t="s" s="3">
+      <c r="AK70" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL70" s="5"/>
     </row>
-    <row r="71" ht="18.25" customHeight="1">
-      <c r="A71" t="s" s="3">
+    <row r="71" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A71" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B71" s="4"/>
@@ -8065,25 +8161,25 @@
       <c r="D71" s="4">
         <v>45650</v>
       </c>
-      <c r="E71" t="s" s="3">
+      <c r="E71" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F71" s="5"/>
-      <c r="G71" t="s" s="3">
+      <c r="G71" s="3" t="s">
         <v>360</v>
       </c>
       <c r="H71" s="5"/>
-      <c r="I71" t="s" s="3">
+      <c r="I71" s="3" t="s">
         <v>361</v>
       </c>
       <c r="J71" s="5"/>
-      <c r="K71" t="s" s="3">
+      <c r="K71" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="L71" t="s" s="6">
+      <c r="L71" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="M71" t="s" s="3">
+      <c r="M71" s="3" t="s">
         <v>364</v>
       </c>
       <c r="N71" s="5"/>
@@ -8102,34 +8198,34 @@
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
-      <c r="AD71" t="s" s="6">
+      <c r="AD71" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="AE71" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF71" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG71" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH71" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AI71" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AJ71" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AK71" t="s" s="3">
+      <c r="AE71" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF71" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG71" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH71" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI71" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ71" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK71" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL71" s="5"/>
     </row>
-    <row r="72" ht="18.25" customHeight="1">
-      <c r="A72" t="s" s="3">
+    <row r="72" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A72" s="3" t="s">
         <v>366</v>
       </c>
       <c r="B72" s="4">
@@ -8141,27 +8237,27 @@
       <c r="D72" s="4">
         <v>45689</v>
       </c>
-      <c r="E72" t="s" s="3">
+      <c r="E72" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F72" s="5"/>
-      <c r="G72" t="s" s="3">
+      <c r="G72" s="3" t="s">
         <v>367</v>
       </c>
       <c r="H72" s="5"/>
-      <c r="I72" t="s" s="3">
+      <c r="I72" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="J72" t="s" s="3">
+      <c r="J72" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="K72" t="s" s="3">
+      <c r="K72" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="L72" t="s" s="6">
+      <c r="L72" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="M72" t="s" s="3">
+      <c r="M72" s="3" t="s">
         <v>372</v>
       </c>
       <c r="N72" s="5"/>
@@ -8180,34 +8276,34 @@
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
       <c r="AC72" s="5"/>
-      <c r="AD72" t="s" s="6">
+      <c r="AD72" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="AE72" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF72" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG72" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH72" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AI72" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AJ72" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AK72" t="s" s="3">
+      <c r="AE72" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF72" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG72" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH72" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI72" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ72" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK72" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL72" s="5"/>
     </row>
-    <row r="73" ht="18.25" customHeight="1">
-      <c r="A73" t="s" s="3">
+    <row r="73" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A73" s="3" t="s">
         <v>374</v>
       </c>
       <c r="B73" s="4">
@@ -8215,27 +8311,27 @@
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" t="s" s="3">
+      <c r="E73" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F73" s="5"/>
-      <c r="G73" t="s" s="3">
+      <c r="G73" s="3" t="s">
         <v>324</v>
       </c>
       <c r="H73" s="5"/>
-      <c r="I73" t="s" s="3">
+      <c r="I73" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="J73" t="s" s="3">
+      <c r="J73" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="K73" t="s" s="3">
+      <c r="K73" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="L73" t="s" s="6">
+      <c r="L73" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="M73" t="s" s="3">
+      <c r="M73" s="3" t="s">
         <v>328</v>
       </c>
       <c r="N73" s="5"/>
@@ -8254,28 +8350,28 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
       <c r="AC73" s="5"/>
-      <c r="AD73" t="s" s="6">
+      <c r="AD73" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="AE73" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF73" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG73" t="s" s="3">
+      <c r="AE73" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF73" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG73" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AH73" s="5"/>
       <c r="AI73" s="5"/>
       <c r="AJ73" s="5"/>
-      <c r="AK73" t="s" s="3">
+      <c r="AK73" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL73" s="5"/>
     </row>
-    <row r="74" ht="18.25" customHeight="1">
-      <c r="A74" t="s" s="3">
+    <row r="74" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A74" s="3" t="s">
         <v>375</v>
       </c>
       <c r="B74" s="4">
@@ -8287,27 +8383,27 @@
       <c r="D74" s="4">
         <v>45672</v>
       </c>
-      <c r="E74" t="s" s="3">
+      <c r="E74" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F74" s="5"/>
-      <c r="G74" t="s" s="3">
+      <c r="G74" s="3" t="s">
         <v>376</v>
       </c>
       <c r="H74" s="5"/>
-      <c r="I74" t="s" s="9">
+      <c r="I74" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="J74" t="s" s="3">
+      <c r="J74" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="K74" t="s" s="10">
+      <c r="K74" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="L74" t="s" s="10">
+      <c r="L74" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="M74" t="s" s="3">
+      <c r="M74" s="3" t="s">
         <v>381</v>
       </c>
       <c r="N74" s="5"/>
@@ -8326,34 +8422,34 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
       <c r="AC74" s="5"/>
-      <c r="AD74" t="s" s="6">
+      <c r="AD74" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="AE74" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF74" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG74" t="s" s="3">
+      <c r="AE74" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF74" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG74" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AH74" s="5"/>
       <c r="AI74" s="5"/>
       <c r="AJ74" s="5"/>
-      <c r="AK74" t="s" s="3">
+      <c r="AK74" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL74" s="5"/>
     </row>
-    <row r="75" ht="17.7" customHeight="1">
-      <c r="A75" t="s" s="3">
+    <row r="75" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A75" s="3" t="s">
         <v>383</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" t="s" s="3">
+      <c r="E75" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F75" s="5"/>
@@ -8363,7 +8459,7 @@
       <c r="J75" s="5"/>
       <c r="K75" s="3"/>
       <c r="L75" s="5"/>
-      <c r="M75" t="s" s="3">
+      <c r="M75" s="3" t="s">
         <v>384</v>
       </c>
       <c r="N75" s="5"/>
@@ -8371,7 +8467,7 @@
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
-      <c r="S75" t="s" s="3">
+      <c r="S75" s="3" t="s">
         <v>385</v>
       </c>
       <c r="T75" s="5"/>
@@ -8394,8 +8490,8 @@
       <c r="AK75" s="5"/>
       <c r="AL75" s="5"/>
     </row>
-    <row r="76" ht="18.25" customHeight="1">
-      <c r="A76" t="s" s="3">
+    <row r="76" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A76" s="3" t="s">
         <v>386</v>
       </c>
       <c r="B76" s="4"/>
@@ -8405,25 +8501,25 @@
       <c r="D76" s="4">
         <v>45962</v>
       </c>
-      <c r="E76" t="s" s="3">
+      <c r="E76" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F76" s="5"/>
-      <c r="G76" t="s" s="3">
+      <c r="G76" s="3" t="s">
         <v>387</v>
       </c>
       <c r="H76" s="5"/>
-      <c r="I76" t="s" s="3">
+      <c r="I76" s="3" t="s">
         <v>388</v>
       </c>
       <c r="J76" s="5"/>
-      <c r="K76" t="s" s="3">
+      <c r="K76" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="L76" t="s" s="6">
+      <c r="L76" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="M76" t="s" s="3">
+      <c r="M76" s="3" t="s">
         <v>391</v>
       </c>
       <c r="N76" s="5"/>
@@ -8442,30 +8538,30 @@
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
       <c r="AC76" s="5"/>
-      <c r="AD76" t="s" s="6">
+      <c r="AD76" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="AE76" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF76" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG76" t="s" s="3">
+      <c r="AE76" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF76" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG76" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AH76" t="s" s="3">
+      <c r="AH76" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI76" s="5"/>
       <c r="AJ76" s="5"/>
-      <c r="AK76" t="s" s="3">
+      <c r="AK76" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL76" s="5"/>
     </row>
-    <row r="77" ht="18.25" customHeight="1">
-      <c r="A77" t="s" s="3">
+    <row r="77" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A77" s="3" t="s">
         <v>393</v>
       </c>
       <c r="B77" s="4"/>
@@ -8475,27 +8571,27 @@
       <c r="D77" s="4">
         <v>45659</v>
       </c>
-      <c r="E77" t="s" s="3">
+      <c r="E77" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F77" s="5"/>
-      <c r="G77" t="s" s="3">
+      <c r="G77" s="3" t="s">
         <v>394</v>
       </c>
       <c r="H77" s="5"/>
-      <c r="I77" t="s" s="3">
+      <c r="I77" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="J77" t="s" s="3">
+      <c r="J77" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="K77" t="s" s="3">
+      <c r="K77" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="L77" t="s" s="6">
+      <c r="L77" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="M77" t="s" s="3">
+      <c r="M77" s="3" t="s">
         <v>399</v>
       </c>
       <c r="N77" s="5"/>
@@ -8514,28 +8610,28 @@
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
-      <c r="AD77" t="s" s="6">
+      <c r="AD77" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="AE77" t="s" s="3">
+      <c r="AE77" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AF77" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG77" t="s" s="3">
+      <c r="AF77" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG77" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AH77" s="5"/>
       <c r="AI77" s="5"/>
       <c r="AJ77" s="5"/>
-      <c r="AK77" t="s" s="3">
+      <c r="AK77" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL77" s="5"/>
     </row>
-    <row r="78" ht="18.25" customHeight="1">
-      <c r="A78" t="s" s="3">
+    <row r="78" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A78" s="3" t="s">
         <v>401</v>
       </c>
       <c r="B78" s="4"/>
@@ -8545,27 +8641,27 @@
       <c r="D78" s="4">
         <v>45703</v>
       </c>
-      <c r="E78" t="s" s="3">
+      <c r="E78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F78" s="5"/>
-      <c r="G78" t="s" s="3">
+      <c r="G78" s="3" t="s">
         <v>402</v>
       </c>
       <c r="H78" s="5"/>
-      <c r="I78" t="s" s="3">
+      <c r="I78" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="J78" t="s" s="3">
+      <c r="J78" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="K78" t="s" s="3">
+      <c r="K78" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="L78" t="s" s="6">
+      <c r="L78" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="M78" t="s" s="3">
+      <c r="M78" s="3" t="s">
         <v>407</v>
       </c>
       <c r="N78" s="5"/>
@@ -8584,34 +8680,34 @@
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
       <c r="AC78" s="5"/>
-      <c r="AD78" t="s" s="6">
+      <c r="AD78" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="AE78" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF78" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG78" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH78" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AI78" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AJ78" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AK78" t="s" s="3">
+      <c r="AE78" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF78" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG78" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH78" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI78" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ78" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK78" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL78" s="5"/>
     </row>
-    <row r="79" ht="18.25" customHeight="1">
-      <c r="A79" t="s" s="3">
+    <row r="79" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A79" s="3" t="s">
         <v>409</v>
       </c>
       <c r="B79" s="4"/>
@@ -8621,27 +8717,27 @@
       <c r="D79" s="4">
         <v>45707</v>
       </c>
-      <c r="E79" t="s" s="3">
+      <c r="E79" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F79" s="5"/>
-      <c r="G79" t="s" s="3">
+      <c r="G79" s="3" t="s">
         <v>410</v>
       </c>
       <c r="H79" s="5"/>
-      <c r="I79" t="s" s="3">
+      <c r="I79" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="J79" t="s" s="3">
+      <c r="J79" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="K79" t="s" s="3">
+      <c r="K79" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="L79" t="s" s="3">
+      <c r="L79" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="M79" t="s" s="3">
+      <c r="M79" s="3" t="s">
         <v>415</v>
       </c>
       <c r="N79" s="5"/>
@@ -8660,16 +8756,16 @@
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
       <c r="AC79" s="5"/>
-      <c r="AD79" t="s" s="6">
+      <c r="AD79" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="AE79" t="s" s="3">
+      <c r="AE79" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AF79" t="s" s="3">
+      <c r="AF79" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AG79" t="s" s="3">
+      <c r="AG79" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AH79" s="5"/>
@@ -8678,8 +8774,8 @@
       <c r="AK79" s="5"/>
       <c r="AL79" s="5"/>
     </row>
-    <row r="80" ht="18.25" customHeight="1">
-      <c r="A80" t="s" s="3">
+    <row r="80" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A80" s="3" t="s">
         <v>417</v>
       </c>
       <c r="B80" s="4"/>
@@ -8689,27 +8785,27 @@
       <c r="D80" s="4">
         <v>45709</v>
       </c>
-      <c r="E80" t="s" s="3">
+      <c r="E80" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F80" s="5"/>
-      <c r="G80" t="s" s="3">
+      <c r="G80" s="3" t="s">
         <v>418</v>
       </c>
       <c r="H80" s="5"/>
-      <c r="I80" t="s" s="3">
+      <c r="I80" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="J80" t="s" s="3">
+      <c r="J80" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K80" t="s" s="3">
+      <c r="K80" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="L80" t="s" s="6">
+      <c r="L80" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="M80" t="s" s="3">
+      <c r="M80" s="3" t="s">
         <v>422</v>
       </c>
       <c r="N80" s="5"/>
@@ -8728,34 +8824,34 @@
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
       <c r="AC80" s="5"/>
-      <c r="AD80" t="s" s="6">
+      <c r="AD80" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="AE80" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF80" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG80" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH80" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AI80" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AJ80" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AK80" t="s" s="3">
+      <c r="AE80" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF80" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG80" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH80" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI80" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ80" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK80" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL80" s="5"/>
     </row>
-    <row r="81" ht="18.25" customHeight="1">
-      <c r="A81" t="s" s="3">
+    <row r="81" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A81" s="3" t="s">
         <v>424</v>
       </c>
       <c r="B81" s="4"/>
@@ -8765,27 +8861,27 @@
       <c r="D81" s="4">
         <v>45710</v>
       </c>
-      <c r="E81" t="s" s="3">
+      <c r="E81" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F81" s="5"/>
-      <c r="G81" t="s" s="3">
+      <c r="G81" s="3" t="s">
         <v>425</v>
       </c>
       <c r="H81" s="5"/>
-      <c r="I81" t="s" s="3">
+      <c r="I81" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="J81" t="s" s="3">
+      <c r="J81" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="K81" t="s" s="3">
+      <c r="K81" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="L81" t="s" s="6">
+      <c r="L81" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="M81" t="s" s="3">
+      <c r="M81" s="3" t="s">
         <v>430</v>
       </c>
       <c r="N81" s="5"/>
@@ -8804,32 +8900,32 @@
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
       <c r="AC81" s="5"/>
-      <c r="AD81" t="s" s="6">
+      <c r="AD81" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="AE81" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF81" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG81" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH81" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AI81" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AJ81" t="s" s="3">
+      <c r="AE81" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF81" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG81" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH81" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI81" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ81" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AK81" s="5"/>
       <c r="AL81" s="5"/>
     </row>
-    <row r="82" ht="18.25" customHeight="1">
-      <c r="A82" t="s" s="3">
+    <row r="82" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A82" s="3" t="s">
         <v>432</v>
       </c>
       <c r="B82" s="4"/>
@@ -8839,27 +8935,27 @@
       <c r="D82" s="4">
         <v>45711</v>
       </c>
-      <c r="E82" t="s" s="3">
+      <c r="E82" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F82" s="5"/>
-      <c r="G82" t="s" s="3">
+      <c r="G82" s="3" t="s">
         <v>433</v>
       </c>
       <c r="H82" s="5"/>
-      <c r="I82" t="s" s="3">
+      <c r="I82" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="J82" t="s" s="3">
+      <c r="J82" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="K82" t="s" s="3">
+      <c r="K82" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="L82" t="s" s="6">
+      <c r="L82" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="M82" t="s" s="3">
+      <c r="M82" s="3" t="s">
         <v>438</v>
       </c>
       <c r="N82" s="5"/>
@@ -8878,34 +8974,34 @@
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
       <c r="AC82" s="5"/>
-      <c r="AD82" t="s" s="6">
+      <c r="AD82" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="AE82" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF82" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG82" t="s" s="3">
+      <c r="AE82" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF82" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG82" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AH82" s="5"/>
       <c r="AI82" s="5"/>
       <c r="AJ82" s="5"/>
-      <c r="AK82" t="s" s="3">
+      <c r="AK82" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL82" s="5"/>
     </row>
-    <row r="83" ht="17.7" customHeight="1">
-      <c r="A83" t="s" s="3">
+    <row r="83" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A83" s="3" t="s">
         <v>440</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" t="s" s="3">
+      <c r="E83" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F83" s="5"/>
@@ -8921,7 +9017,7 @@
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
-      <c r="S83" t="s" s="3">
+      <c r="S83" s="3" t="s">
         <v>441</v>
       </c>
       <c r="T83" s="5"/>
@@ -8944,8 +9040,8 @@
       <c r="AK83" s="5"/>
       <c r="AL83" s="5"/>
     </row>
-    <row r="84" ht="18.25" customHeight="1">
-      <c r="A84" t="s" s="3">
+    <row r="84" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A84" s="3" t="s">
         <v>442</v>
       </c>
       <c r="B84" s="4"/>
@@ -8955,27 +9051,27 @@
       <c r="D84" s="4">
         <v>45750</v>
       </c>
-      <c r="E84" t="s" s="3">
+      <c r="E84" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F84" s="5"/>
-      <c r="G84" t="s" s="3">
+      <c r="G84" s="3" t="s">
         <v>443</v>
       </c>
       <c r="H84" s="5"/>
-      <c r="I84" t="s" s="3">
+      <c r="I84" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="J84" t="s" s="3">
+      <c r="J84" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="K84" t="s" s="3">
+      <c r="K84" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="L84" t="s" s="6">
+      <c r="L84" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="M84" t="s" s="3">
+      <c r="M84" s="3" t="s">
         <v>448</v>
       </c>
       <c r="N84" s="5"/>
@@ -8994,34 +9090,34 @@
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
       <c r="AC84" s="5"/>
-      <c r="AD84" t="s" s="6">
+      <c r="AD84" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="AE84" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF84" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG84" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH84" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AI84" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AJ84" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AK84" t="s" s="3">
+      <c r="AE84" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF84" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG84" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH84" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI84" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ84" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK84" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL84" s="5"/>
     </row>
-    <row r="85" ht="17.7" customHeight="1">
-      <c r="A85" t="s" s="3">
+    <row r="85" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A85" s="3" t="s">
         <v>450</v>
       </c>
       <c r="B85" s="4"/>
@@ -9031,27 +9127,27 @@
       <c r="D85" s="4">
         <v>45841</v>
       </c>
-      <c r="E85" t="s" s="3">
+      <c r="E85" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F85" s="5"/>
-      <c r="G85" t="s" s="3">
+      <c r="G85" s="3" t="s">
         <v>451</v>
       </c>
       <c r="H85" s="5"/>
-      <c r="I85" t="s" s="3">
+      <c r="I85" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="J85" t="s" s="3">
+      <c r="J85" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="K85" t="s" s="3">
+      <c r="K85" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="L85" t="s" s="3">
+      <c r="L85" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="M85" t="s" s="7">
+      <c r="M85" s="7" t="s">
         <v>456</v>
       </c>
       <c r="N85" s="5"/>
@@ -9070,19 +9166,19 @@
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
       <c r="AC85" s="5"/>
-      <c r="AD85" t="s" s="6">
+      <c r="AD85" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="AE85" t="s" s="3">
+      <c r="AE85" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AF85" t="s" s="3">
+      <c r="AF85" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="AG85" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH85" t="s" s="3">
+      <c r="AG85" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH85" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI85" s="5"/>
@@ -9090,14 +9186,14 @@
       <c r="AK85" s="5"/>
       <c r="AL85" s="5"/>
     </row>
-    <row r="86" ht="17.7" customHeight="1">
-      <c r="A86" t="s" s="3">
+    <row r="86" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A86" s="3" t="s">
         <v>459</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" t="s" s="3">
+      <c r="E86" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F86" s="5"/>
@@ -9113,7 +9209,7 @@
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
-      <c r="S86" t="s" s="3">
+      <c r="S86" s="3" t="s">
         <v>460</v>
       </c>
       <c r="T86" s="5"/>
@@ -9136,14 +9232,14 @@
       <c r="AK86" s="5"/>
       <c r="AL86" s="5"/>
     </row>
-    <row r="87" ht="17.7" customHeight="1">
-      <c r="A87" t="s" s="3">
+    <row r="87" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A87" s="3" t="s">
         <v>461</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" t="s" s="3">
+      <c r="E87" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F87" s="5"/>
@@ -9159,7 +9255,7 @@
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
-      <c r="S87" t="s" s="3">
+      <c r="S87" s="3" t="s">
         <v>462</v>
       </c>
       <c r="T87" s="5"/>
@@ -9182,8 +9278,8 @@
       <c r="AK87" s="5"/>
       <c r="AL87" s="5"/>
     </row>
-    <row r="88" ht="18.25" customHeight="1">
-      <c r="A88" t="s" s="3">
+    <row r="88" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A88" s="3" t="s">
         <v>463</v>
       </c>
       <c r="B88" s="4"/>
@@ -9193,24 +9289,24 @@
       <c r="D88" s="4">
         <v>45742</v>
       </c>
-      <c r="E88" t="s" s="3">
+      <c r="E88" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F88" s="5"/>
-      <c r="G88" t="s" s="3">
+      <c r="G88" s="3" t="s">
         <v>464</v>
       </c>
       <c r="H88" s="5"/>
-      <c r="I88" t="s" s="3">
+      <c r="I88" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="J88" t="s" s="3">
+      <c r="J88" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="K88" t="s" s="3">
+      <c r="K88" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="L88" t="s" s="6">
+      <c r="L88" s="6" t="s">
         <v>468</v>
       </c>
       <c r="M88" s="5"/>
@@ -9230,30 +9326,30 @@
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
       <c r="AC88" s="5"/>
-      <c r="AD88" t="s" s="6">
+      <c r="AD88" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="AE88" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF88" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG88" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH88" t="s" s="3">
+      <c r="AE88" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF88" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG88" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH88" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI88" s="5"/>
       <c r="AJ88" s="5"/>
-      <c r="AK88" t="s" s="3">
+      <c r="AK88" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL88" s="5"/>
     </row>
-    <row r="89" ht="18.25" customHeight="1">
-      <c r="A89" t="s" s="3">
+    <row r="89" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A89" s="3" t="s">
         <v>470</v>
       </c>
       <c r="B89" s="4"/>
@@ -9263,24 +9359,24 @@
       <c r="D89" s="4">
         <v>45703</v>
       </c>
-      <c r="E89" t="s" s="3">
+      <c r="E89" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F89" s="5"/>
-      <c r="G89" t="s" s="3">
+      <c r="G89" s="3" t="s">
         <v>471</v>
       </c>
       <c r="H89" s="5"/>
-      <c r="I89" t="s" s="3">
+      <c r="I89" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="J89" t="s" s="3">
+      <c r="J89" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="K89" t="s" s="3">
+      <c r="K89" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="L89" t="s" s="6">
+      <c r="L89" s="6" t="s">
         <v>474</v>
       </c>
       <c r="M89" s="5"/>
@@ -9300,30 +9396,30 @@
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
       <c r="AC89" s="5"/>
-      <c r="AD89" t="s" s="6">
+      <c r="AD89" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="AE89" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF89" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG89" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH89" t="s" s="3">
+      <c r="AE89" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF89" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG89" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH89" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI89" s="5"/>
       <c r="AJ89" s="5"/>
-      <c r="AK89" t="s" s="3">
+      <c r="AK89" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL89" s="5"/>
     </row>
-    <row r="90" ht="18.25" customHeight="1">
-      <c r="A90" t="s" s="3">
+    <row r="90" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A90" s="3" t="s">
         <v>476</v>
       </c>
       <c r="B90" s="4"/>
@@ -9333,24 +9429,24 @@
       <c r="D90" s="4">
         <v>45765</v>
       </c>
-      <c r="E90" t="s" s="3">
+      <c r="E90" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F90" s="5"/>
-      <c r="G90" t="s" s="3">
+      <c r="G90" s="3" t="s">
         <v>477</v>
       </c>
       <c r="H90" s="5"/>
-      <c r="I90" t="s" s="3">
+      <c r="I90" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="J90" t="s" s="3">
+      <c r="J90" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="K90" t="s" s="3">
+      <c r="K90" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="L90" t="s" s="3">
+      <c r="L90" s="3" t="s">
         <v>481</v>
       </c>
       <c r="M90" s="5"/>
@@ -9370,16 +9466,16 @@
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
       <c r="AC90" s="5"/>
-      <c r="AD90" t="s" s="6">
+      <c r="AD90" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="AE90" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF90" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG90" t="s" s="3">
+      <c r="AE90" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF90" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG90" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AH90" s="5"/>
@@ -9388,8 +9484,8 @@
       <c r="AK90" s="5"/>
       <c r="AL90" s="5"/>
     </row>
-    <row r="91" ht="18.25" customHeight="1">
-      <c r="A91" t="s" s="3">
+    <row r="91" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A91" s="3" t="s">
         <v>483</v>
       </c>
       <c r="B91" s="4"/>
@@ -9399,24 +9495,24 @@
       <c r="D91" s="4">
         <v>45804</v>
       </c>
-      <c r="E91" t="s" s="3">
+      <c r="E91" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F91" s="5"/>
-      <c r="G91" t="s" s="3">
+      <c r="G91" s="3" t="s">
         <v>484</v>
       </c>
       <c r="H91" s="5"/>
-      <c r="I91" t="s" s="3">
+      <c r="I91" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="J91" t="s" s="3">
+      <c r="J91" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="K91" t="s" s="3">
+      <c r="K91" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="L91" t="s" s="6">
+      <c r="L91" s="6" t="s">
         <v>488</v>
       </c>
       <c r="M91" s="5"/>
@@ -9436,19 +9532,19 @@
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
       <c r="AC91" s="5"/>
-      <c r="AD91" t="s" s="6">
+      <c r="AD91" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="AE91" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF91" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG91" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH91" t="s" s="3">
+      <c r="AE91" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF91" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG91" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH91" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI91" s="5"/>
@@ -9456,8 +9552,8 @@
       <c r="AK91" s="5"/>
       <c r="AL91" s="5"/>
     </row>
-    <row r="92" ht="18.25" customHeight="1">
-      <c r="A92" t="s" s="3">
+    <row r="92" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A92" s="3" t="s">
         <v>490</v>
       </c>
       <c r="B92" s="4"/>
@@ -9467,24 +9563,24 @@
       <c r="D92" s="4">
         <v>45753</v>
       </c>
-      <c r="E92" t="s" s="3">
+      <c r="E92" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F92" s="5"/>
-      <c r="G92" t="s" s="3">
+      <c r="G92" s="3" t="s">
         <v>491</v>
       </c>
       <c r="H92" s="5"/>
-      <c r="I92" t="s" s="3">
+      <c r="I92" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="J92" t="s" s="3">
+      <c r="J92" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K92" t="s" s="3">
+      <c r="K92" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="L92" t="s" s="3">
+      <c r="L92" s="3" t="s">
         <v>494</v>
       </c>
       <c r="M92" s="5"/>
@@ -9504,19 +9600,19 @@
       <c r="AA92" s="5"/>
       <c r="AB92" s="5"/>
       <c r="AC92" s="5"/>
-      <c r="AD92" t="s" s="6">
+      <c r="AD92" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="AE92" t="s" s="3">
+      <c r="AE92" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AF92" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG92" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH92" t="s" s="3">
+      <c r="AF92" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG92" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH92" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI92" s="5"/>
@@ -9524,8 +9620,8 @@
       <c r="AK92" s="5"/>
       <c r="AL92" s="5"/>
     </row>
-    <row r="93" ht="18.25" customHeight="1">
-      <c r="A93" t="s" s="3">
+    <row r="93" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A93" s="3" t="s">
         <v>496</v>
       </c>
       <c r="B93" s="4"/>
@@ -9535,24 +9631,24 @@
       <c r="D93" s="4">
         <v>45906</v>
       </c>
-      <c r="E93" t="s" s="3">
+      <c r="E93" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F93" s="5"/>
-      <c r="G93" t="s" s="3">
+      <c r="G93" s="3" t="s">
         <v>497</v>
       </c>
       <c r="H93" s="5"/>
-      <c r="I93" t="s" s="3">
+      <c r="I93" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="J93" t="s" s="3">
+      <c r="J93" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="K93" t="s" s="3">
+      <c r="K93" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="L93" t="s" s="3">
+      <c r="L93" s="3" t="s">
         <v>500</v>
       </c>
       <c r="M93" s="5"/>
@@ -9572,19 +9668,19 @@
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
       <c r="AC93" s="5"/>
-      <c r="AD93" t="s" s="6">
+      <c r="AD93" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="AE93" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF93" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG93" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH93" t="s" s="3">
+      <c r="AE93" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF93" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG93" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH93" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI93" s="5"/>
@@ -9592,8 +9688,8 @@
       <c r="AK93" s="5"/>
       <c r="AL93" s="5"/>
     </row>
-    <row r="94" ht="18.25" customHeight="1">
-      <c r="A94" t="s" s="3">
+    <row r="94" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A94" s="3" t="s">
         <v>502</v>
       </c>
       <c r="B94" s="4"/>
@@ -9603,24 +9699,24 @@
       <c r="D94" s="4">
         <v>45571</v>
       </c>
-      <c r="E94" t="s" s="3">
+      <c r="E94" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F94" s="5"/>
-      <c r="G94" t="s" s="3">
+      <c r="G94" s="3" t="s">
         <v>503</v>
       </c>
       <c r="H94" s="5"/>
-      <c r="I94" t="s" s="3">
+      <c r="I94" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="J94" t="s" s="3">
+      <c r="J94" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="K94" t="s" s="3">
+      <c r="K94" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="L94" t="s" s="6">
+      <c r="L94" s="6" t="s">
         <v>507</v>
       </c>
       <c r="M94" s="5"/>
@@ -9640,16 +9736,16 @@
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
       <c r="AC94" s="5"/>
-      <c r="AD94" t="s" s="6">
+      <c r="AD94" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="AE94" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF94" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG94" t="s" s="3">
+      <c r="AE94" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF94" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG94" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AH94" s="5"/>
@@ -9658,8 +9754,8 @@
       <c r="AK94" s="5"/>
       <c r="AL94" s="5"/>
     </row>
-    <row r="95" ht="18.25" customHeight="1">
-      <c r="A95" t="s" s="3">
+    <row r="95" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A95" s="3" t="s">
         <v>509</v>
       </c>
       <c r="B95" s="4"/>
@@ -9669,24 +9765,24 @@
       <c r="D95" s="4">
         <v>45822</v>
       </c>
-      <c r="E95" t="s" s="3">
+      <c r="E95" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F95" s="5"/>
-      <c r="G95" t="s" s="3">
+      <c r="G95" s="3" t="s">
         <v>510</v>
       </c>
       <c r="H95" s="5"/>
-      <c r="I95" t="s" s="3">
+      <c r="I95" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="J95" t="s" s="3">
+      <c r="J95" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="K95" t="s" s="3">
+      <c r="K95" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="L95" t="s" s="3">
+      <c r="L95" s="3" t="s">
         <v>514</v>
       </c>
       <c r="M95" s="5"/>
@@ -9706,30 +9802,30 @@
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
       <c r="AC95" s="5"/>
-      <c r="AD95" t="s" s="6">
+      <c r="AD95" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="AE95" t="s" s="3">
+      <c r="AE95" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="AF95" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AG95" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AH95" t="s" s="3">
+      <c r="AF95" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG95" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH95" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI95" s="5"/>
       <c r="AJ95" s="5"/>
-      <c r="AK95" t="s" s="3">
+      <c r="AK95" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL95" s="5"/>
     </row>
-    <row r="96" ht="18.25" customHeight="1">
-      <c r="A96" t="s" s="3">
+    <row r="96" spans="1:38" ht="18.2" customHeight="1">
+      <c r="A96" s="3" t="s">
         <v>517</v>
       </c>
       <c r="B96" s="4"/>
@@ -9739,24 +9835,24 @@
       <c r="D96" s="4">
         <v>45825</v>
       </c>
-      <c r="E96" t="s" s="3">
+      <c r="E96" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F96" s="5"/>
-      <c r="G96" t="s" s="3">
+      <c r="G96" s="3" t="s">
         <v>518</v>
       </c>
       <c r="H96" s="5"/>
-      <c r="I96" t="s" s="3">
+      <c r="I96" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="J96" t="s" s="3">
+      <c r="J96" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K96" t="s" s="3">
+      <c r="K96" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="L96" t="s" s="3">
+      <c r="L96" s="3" t="s">
         <v>521</v>
       </c>
       <c r="M96" s="5"/>
@@ -9776,28 +9872,28 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
       <c r="AC96" s="5"/>
-      <c r="AD96" t="s" s="6">
+      <c r="AD96" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="AE96" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="AF96" t="s" s="3">
+      <c r="AE96" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF96" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AG96" s="5"/>
-      <c r="AH96" t="s" s="3">
+      <c r="AH96" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AI96" s="5"/>
       <c r="AJ96" s="5"/>
-      <c r="AK96" t="s" s="3">
+      <c r="AK96" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AL96" s="5"/>
     </row>
-    <row r="97" ht="17.7" customHeight="1">
-      <c r="A97" t="s" s="3">
+    <row r="97" spans="1:38" ht="17.649999999999999" customHeight="1">
+      <c r="A97" s="3" t="s">
         <v>523</v>
       </c>
       <c r="B97" s="4"/>
@@ -9807,11 +9903,11 @@
       <c r="D97" s="4">
         <v>45443</v>
       </c>
-      <c r="E97" t="s" s="3">
+      <c r="E97" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F97" s="5"/>
-      <c r="G97" t="s" s="3">
+      <c r="G97" s="3" t="s">
         <v>524</v>
       </c>
       <c r="H97" s="5"/>
@@ -9846,117 +9942,187 @@
       <c r="AK97" s="5"/>
       <c r="AL97" s="5"/>
     </row>
+    <row r="98" spans="1:38" ht="15" customHeight="1">
+      <c r="A98" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4">
+        <v>45461</v>
+      </c>
+      <c r="D98" s="4">
+        <v>45825</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F98" s="5"/>
+      <c r="G98" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="H98" s="5"/>
+      <c r="I98" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="L98" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+      <c r="V98" s="5"/>
+      <c r="W98" s="5"/>
+      <c r="X98" s="5"/>
+      <c r="Y98" s="5"/>
+      <c r="Z98" s="5"/>
+      <c r="AA98" s="5"/>
+      <c r="AB98" s="5"/>
+      <c r="AC98" s="5"/>
+      <c r="AD98" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="AE98" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF98" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG98" s="5"/>
+      <c r="AH98" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI98" s="5"/>
+      <c r="AJ98" s="5"/>
+      <c r="AK98" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL98" s="5"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" location="" tooltip="" display="Martechthai@gmail.com"/>
-    <hyperlink ref="AD2" r:id="rId2" location="" tooltip="" display="0000001_บริษัท มาร์เก็ตติ้งเทค จำกัด (สำนักงานใหญ่)"/>
-    <hyperlink ref="L3" r:id="rId3" location="" tooltip="" display="saroj@wisible.com"/>
-    <hyperlink ref="AD3" r:id="rId4" location="" tooltip="" display="0000002_บริษัท วิสซิเบิล จำกัด"/>
-    <hyperlink ref="AD4" r:id="rId5" location="" tooltip="" display="0000003_บริษัท เอแซป โปรเจคท์ จำกัด"/>
-    <hyperlink ref="L5" r:id="rId6" location="" tooltip="" display="sitthi@emetworks.com"/>
-    <hyperlink ref="AD5" r:id="rId7" location="" tooltip="" display="0000004_บริษัท เอเมทเวิร์คส์ จำกัด"/>
-    <hyperlink ref="L6" r:id="rId8" location="" tooltip="" display="atchariya@aiya.ai"/>
-    <hyperlink ref="AD6" r:id="rId9" location="" tooltip="" display="0000005_บริษัท มีจีเนียส จำกัด (สำนักงานใหญ่)"/>
-    <hyperlink ref="L7" r:id="rId10" location="" tooltip="" display="suvita@tellscore.com "/>
-    <hyperlink ref="AD7" r:id="rId11" location="" tooltip="" display="0000006_บริษัท เทลสกอร์ จำกัด (สำนักงานใหญ่)"/>
-    <hyperlink ref="L8" r:id="rId12" location="" tooltip="" display="nakamol@waymaker.co.th"/>
-    <hyperlink ref="AD8" r:id="rId13" location="" tooltip="" display="0000018_บริษัท เวย์ เมคเกอร์ จำกัด (สำนักงานใหญ่)"/>
-    <hyperlink ref="L9" r:id="rId14" location="" tooltip="" display="kanokkan.r@yellbkk.com"/>
-    <hyperlink ref="AD9" r:id="rId15" location="" tooltip="" display="0000008_บริษัท วายเอ็มดอท สตูดิโอ จำกัด (สำนักงานใหญ่)"/>
-    <hyperlink ref="Y10" r:id="rId16" location="" tooltip="" display="prin.investor@gmail.com"/>
-    <hyperlink ref="L11" r:id="rId17" location="" tooltip="" display="napitch@growth.co.th"/>
-    <hyperlink ref="AD11" r:id="rId18" location="" tooltip="" display="0000010_บริษัท โกรท อินโนเวชั่น จำกัด (สำนักงานใหญ่)"/>
-    <hyperlink ref="L12" r:id="rId19" location="" tooltip="" display="fern@shipnity.com"/>
-    <hyperlink ref="AD12" r:id="rId20" location="" tooltip="" display="0000011_บริษัท ชิปนิตี้ จำกัด (สำนักงานใหญ่)"/>
-    <hyperlink ref="Y13" r:id="rId21" location="" tooltip="" display="pichawee.a@gmail.com"/>
-    <hyperlink ref="L15" r:id="rId22" location="" tooltip="" display="chaiyapong@3dsinteractive.com"/>
-    <hyperlink ref="AD15" r:id="rId23" location="" tooltip="" display="0000014_บริษัท ทรีดีเอส อินเตอร์แอคทีฟ จำกัด (สำนักงานใหญ่)"/>
-    <hyperlink ref="L17" r:id="rId24" location="" tooltip="" display="Varanyu@dmit.co.th"/>
-    <hyperlink ref="AD17" r:id="rId25" location="" tooltip="" display="0000016_บริษัท ดีมีเตอร์ ไอซีที จำกัด"/>
-    <hyperlink ref="L18" r:id="rId26" location="" tooltip="" display="procurement@realsmart.co.th"/>
-    <hyperlink ref="AD18" r:id="rId27" location="" tooltip="" display="0000017_บริษัท เรียล สมาร์ท จำกัด (สำนักงานใหญ่)"/>
-    <hyperlink ref="L19" r:id="rId28" location="" tooltip="" display="finance.waymaker@gmail.com"/>
-    <hyperlink ref="AD19" r:id="rId29" location="" tooltip="" display="0000018_บริษัท เวย์ เมคเกอร์ จำกัด (สำนักงานใหญ่)"/>
-    <hyperlink ref="AD21" r:id="rId30" location="" tooltip="" display="0000020_บริษัท เดนท์สุ โฮลดิ้งส์ (ประเทศไทย) จำกัด (สำนักงานใหญ่)"/>
-    <hyperlink ref="Y22" r:id="rId31" location="" tooltip="" display="sarojkhobkid@gmail.com"/>
-    <hyperlink ref="L23" r:id="rId32" location="" tooltip="" display="nuttakorn@predictive.co.th"/>
-    <hyperlink ref="AD23" r:id="rId33" location="" tooltip="" display="0000022_บริษัท พรีดิกทิฟ จำกัด (สำนักงานใหญ่)"/>
-    <hyperlink ref="AD26" r:id="rId34" location="" tooltip="" display="0000025_บริษัท คิดไซด์โค้ง จำกัด (สำนักงานใหญ่)"/>
-    <hyperlink ref="AD27" r:id="rId35" location="" tooltip="" display="0000026_บริษัท วินเทอร์อีเจนซี่ จำกัด (สำนักงานใหญ่)"/>
-    <hyperlink ref="AD30" r:id="rId36" location="" tooltip="" display="0000029_บริษัท เครสเซนโด้ แล็บ จำกัด"/>
-    <hyperlink ref="AD33" r:id="rId37" location="" tooltip="" display="0000032_บริษัท บีแทสก์ คอนซัลติ้ง จำกัด "/>
-    <hyperlink ref="AD37" r:id="rId38" location="" tooltip="" display="0000036_บริษัท ดีจีเอส ดิจิตอล จำกัด"/>
-    <hyperlink ref="AD39" r:id="rId39" location="" tooltip="" display="0000038_บริษัท พีวี 168 จำกัด"/>
-    <hyperlink ref="AD40" r:id="rId40" location="" tooltip="" display="0000039_บริษัท อินไซท์ เอรา จำกัด"/>
-    <hyperlink ref="AD41" r:id="rId41" location="" tooltip="" display="0000040_บริษัท บุโคล่า จำกัด"/>
-    <hyperlink ref="AD42" r:id="rId42" location="" tooltip="" display="0000041_บริษัท บัซซี่บีส์ จำกัด"/>
-    <hyperlink ref="AD43" r:id="rId43" location="" tooltip="" display="0000042_บริษัท ทิปปิ้ง พ้อยท์ โซลูชั่น จำกัด "/>
-    <hyperlink ref="AD45" r:id="rId44" location="" tooltip="" display="0000044_บริษัท แอพแมน จำกัด (สำนักงานใหญ่)"/>
-    <hyperlink ref="AD46" r:id="rId45" location="" tooltip="" display="0000045_บริษัท พรีโมเวิร์ล จำกัด สำนักงานใหญ่"/>
-    <hyperlink ref="AD47" r:id="rId46" location="" tooltip="" display="0000046_มหาวิทยาลัยธุรกิจบัณฑิตย์"/>
-    <hyperlink ref="AD48" r:id="rId47" location="" tooltip="" display="0000047_บริษัท ไวท์ไลน์แอคทิเวชัน จำกัด (สำนักงานใหญ่)"/>
-    <hyperlink ref="AD49" r:id="rId48" location="" tooltip="" display="0000048_บริษัท เอแปด ดิจิทอล จำกัด (สำนักงานใหญ่)"/>
-    <hyperlink ref="AD50" r:id="rId49" location="" tooltip="" display="0000049_บริษัท อเกต คอมมิวนิเคชั่น จำกัด (สำนักงานใหญ่)"/>
-    <hyperlink ref="AD51" r:id="rId50" location="" tooltip="" display="0000050_บริษัท มากุโระ กรุ๊ป จำกัด (สำนักงานใหม่)"/>
-    <hyperlink ref="AD52" r:id="rId51" location="" tooltip="" display="https://drive.google.com/drive/u/0/folders/1ekN9Hgk97Dt_swJvhtrZsPQPwRrkCblk"/>
-    <hyperlink ref="AD54" r:id="rId52" location="" tooltip="" display="0000053_บริษัท เอ ไอ ซิสเต็ม จำกัด"/>
-    <hyperlink ref="L57" r:id="rId53" location="" tooltip="" display="sirin@botio.io"/>
-    <hyperlink ref="AD57" r:id="rId54" location="" tooltip="" display="0000056_บริษัท บอทไอโอ จำกัด"/>
-    <hyperlink ref="L60" r:id="rId55" location="" tooltip="" display="chanakarn.c@robolingo.ai"/>
-    <hyperlink ref="AD60" r:id="rId56" location="" tooltip="" display="0000059_บริษัท โรโบลิงโก้ จำกัด"/>
-    <hyperlink ref="L61" r:id="rId57" location="" tooltip="" display="sayurihagihara.work@gmail.com"/>
-    <hyperlink ref="AD61" r:id="rId58" location="" tooltip="" display="0000060_บริษัท แคชเชียร์ จำกัด (XR Digital group co.,ltd)"/>
-    <hyperlink ref="L62" r:id="rId59" location="" tooltip="" display="natthakorn.w@likemeasia.com"/>
-    <hyperlink ref="AD62" r:id="rId60" location="" tooltip="" display="0000061_บริษัท ไลค์ มี จำกัด (สำนักงานใหญ่)"/>
-    <hyperlink ref="L63" r:id="rId61" location="" tooltip="" display="somyos@scasset.com"/>
-    <hyperlink ref="AD63" r:id="rId62" location="" tooltip="" display="0000062_บริษัท เอสซี แอสเสท คอร์ปอเรชั่น จำกัด (มหาชน)"/>
-    <hyperlink ref="L65" r:id="rId63" location="" tooltip="" display="rangwan@rocket.in.th"/>
-    <hyperlink ref="AD65" r:id="rId64" location="" tooltip="" display="0000064_บริษัท ร็อคเก็ต ดิจิตัล จำกัด"/>
-    <hyperlink ref="L66" r:id="rId65" location="" tooltip="" display="pattarawan@1moby.com"/>
-    <hyperlink ref="AD66" r:id="rId66" location="" tooltip="" display="0000065_บริษัท วันม็อบบี้ จำกัด"/>
-    <hyperlink ref="L67" r:id="rId67" location="" tooltip="" display="sathapath.ki@ssru.ac.th"/>
-    <hyperlink ref="AD67" r:id="rId68" location="" tooltip="" display="0000066_มหาวิทยาลัยราชภัฏสวนสุนันทา"/>
-    <hyperlink ref="L70" r:id="rId69" location="" tooltip="" display="uthumporn_int@thepeople.co"/>
-    <hyperlink ref="AD70" r:id="rId70" location="" tooltip="" display="0000069_บริษัท เนชั่น นิวส์ จำกัด"/>
-    <hyperlink ref="L71" r:id="rId71" location="" tooltip="" display="komsak_s@diginativethai.com"/>
-    <hyperlink ref="AD71" r:id="rId72" location="" tooltip="" display="0000070_บริษัท ดิจิเนทีฟ จำกัด"/>
-    <hyperlink ref="L72" r:id="rId73" location="" tooltip="" display="chonthicha@analytist.co"/>
-    <hyperlink ref="AD72" r:id="rId74" location="" tooltip="" display="0000071_บริษัท แอนะลิติสท์ จำกัด"/>
-    <hyperlink ref="L73" r:id="rId75" location="" tooltip="" display="rangwan@rocket.in.th"/>
-    <hyperlink ref="AD73" r:id="rId76" location="" tooltip="" display="0000064_บริษัท ร็อคเก็ต ดิจิตัล จำกัด"/>
-    <hyperlink ref="AD74" r:id="rId77" location="" tooltip="" display="0000073_บริษัท เนชั่น กรุ๊ป (ไทยแลนด์) จำกัด (มหาชน)"/>
-    <hyperlink ref="L76" r:id="rId78" location="" tooltip="" display="orn@privageapp.com"/>
-    <hyperlink ref="AD76" r:id="rId79" location="" tooltip="" display="0000075_บริษัท พริเวจ แอป จำกัด"/>
-    <hyperlink ref="L77" r:id="rId80" location="" tooltip="" display="adisak@idslt.com"/>
-    <hyperlink ref="AD77" r:id="rId81" location="" tooltip="" display="0000076_บริษัท ไอดีเอสแอลที จำกัด"/>
-    <hyperlink ref="L78" r:id="rId82" location="" tooltip="" display="thitapa.p@digital-integrated.com"/>
-    <hyperlink ref="AD78" r:id="rId83" location="" tooltip="" display="0000077_บริษัท ดิจิทัล อินทิเกรท จำกัด "/>
-    <hyperlink ref="AD79" r:id="rId84" location="" tooltip="" display="0000078_บริษัท สเต็ป เทรนนิ่ง จำกัด"/>
-    <hyperlink ref="L80" r:id="rId85" location="" tooltip="" display="pitiporn.se@chococrm.com"/>
-    <hyperlink ref="AD80" r:id="rId86" location="" tooltip="" display="0000079_บริษัท ช็อคโก้ คาร์ด เอ็นเตอร์ไพรส์ จำกัด"/>
-    <hyperlink ref="L81" r:id="rId87" location="" tooltip="" display="accounts@relevantaudience.com"/>
-    <hyperlink ref="AD81" r:id="rId88" location="" tooltip="" display="0000080_บริษัท เรลเลเวนท์ ออเดียนซ์ จำกัด"/>
-    <hyperlink ref="L82" r:id="rId89" location="" tooltip="" display="ice.icalands@gmail.com"/>
-    <hyperlink ref="AD82" r:id="rId90" location="" tooltip="" display="0000081_บริษัท ดีโหวต จำกัด"/>
-    <hyperlink ref="L84" r:id="rId91" location="" tooltip="" display="maturos.k@calldi.co"/>
-    <hyperlink ref="AD84" r:id="rId92" location="" tooltip="" display="0000082_โทรดิ จำกัด"/>
-    <hyperlink ref="AD85" r:id="rId93" location="" tooltip="" display="0000084_บริษัท บิทคับ แคปปิตอล กรุ๊ป โฮลดิ้งส์ จำกัด"/>
-    <hyperlink ref="L88" r:id="rId94" location="" tooltip="" display="marketinggroup@tarad.com  /. tadthananan.s@tarad.com"/>
-    <hyperlink ref="AD88" r:id="rId95" location="" tooltip="" display="0000087_บริษัท เพย์ โซลูชั่น จำกัด"/>
-    <hyperlink ref="L89" r:id="rId96" location="" tooltip="" display="nisakon@packtica.com"/>
-    <hyperlink ref="AD89" r:id="rId97" location="" tooltip="" display="0000088_บริษัท แพ็คติคา จำกัด"/>
-    <hyperlink ref="AD90" r:id="rId98" location="" tooltip="" display="0000089_บริษัท เอนี่มายด์ จำกัด"/>
-    <hyperlink ref="L91" r:id="rId99" location="" tooltip="" display="hyadpilai.s@ydmthailand.com"/>
-    <hyperlink ref="AD91" r:id="rId100" location="" tooltip="" display="0000090_บริษัท วายดีเอ็ม (ไทยแลนด์) จำกัด"/>
-    <hyperlink ref="AD92" r:id="rId101" location="" tooltip="" display="0000091_บริษัท ดิเนสโซ (ประเทศไทย) จำกัด"/>
-    <hyperlink ref="AD93" r:id="rId102" location="" tooltip="" display="0000092_บริษัท ดาต้าเซ็ต จำกัด"/>
-    <hyperlink ref="L94" r:id="rId103" location="" tooltip="" display="patchara.t@funcrowd.co.th"/>
-    <hyperlink ref="AD94" r:id="rId104" location="" tooltip="" display="0000093_บริษัท ฟันคราวด์ จำกัด"/>
-    <hyperlink ref="AD95" r:id="rId105" location="" tooltip="" display="0000094_บริษัท ครีเอทีฟ อีร่า จำกัด"/>
-    <hyperlink ref="AD96" r:id="rId106" location="" tooltip="" display="0000095_บริษัท โก ออนไลน์ เอเจนซี่ จำกัด"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AD2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AD3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AD4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AD5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AD6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="AD7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="AD8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AD9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Y10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AD11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="AD12" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="Y13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="L15" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AD15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L17" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="AD17" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="L18" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="AD18" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="L19" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="AD19" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="AD21" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="Y22" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L23" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="AD23" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="AD26" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="AD27" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="AD30" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="AD33" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="AD37" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="AD39" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="AD40" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="AD41" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="AD42" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="AD43" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="AD45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="AD46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="AD47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="AD48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="AD49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="AD50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="AD51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="AD52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="AD54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="L57" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="AD57" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="L60" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="AD60" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="L61" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="AD61" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="L62" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="AD62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="L63" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="AD63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="L65" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="AD65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="L66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="AD66" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="L67" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="AD67" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="L70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="AD70" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="L71" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="AD71" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="L72" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="AD72" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="L73" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="AD73" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="AD74" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="L76" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="AD76" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="L77" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="AD77" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="L78" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="AD78" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="AD79" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="L80" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="AD80" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="L81" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="AD81" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="L82" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="AD82" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="L84" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="AD84" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="AD85" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="L88" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="AD88" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="L89" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="AD89" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="AD90" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="L91" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="AD91" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="AD92" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="AD93" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="L94" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="AD94" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="AD95" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="AD96" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="AD98" r:id="rId107" xr:uid="{7D6D9CD0-E486-4DB0-AF0E-670A68B159A9}"/>
+    <hyperlink ref="L98" r:id="rId108" xr:uid="{02ED12E2-9DC0-48F1-A9EC-298AD25A7652}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/documents/excelfile/member.xlsx
+++ b/src/documents/excelfile/member.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Ex10\MarTec\MarTecMember\src\documents\excelfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17844038-D6CA-4EA0-8332-AD66023A6EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DF4F7C-169B-4F49-9F2C-920F056238B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="525">
   <si>
     <t>memberId</t>
   </si>
@@ -2438,15 +2438,6 @@
   </si>
   <si>
     <t>บริษัท ซาลูเต้ คอร์ปอเรชั่น จำกัด</t>
-  </si>
-  <si>
-    <t>0000097</t>
-  </si>
-  <si>
-    <t>ทาม</t>
-  </si>
-  <si>
-    <t>chatchawan.aromtip@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -3745,8 +3736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -9943,36 +9934,18 @@
       <c r="AL97" s="5"/>
     </row>
     <row r="98" spans="1:38" ht="15" customHeight="1">
-      <c r="A98" s="3" t="s">
-        <v>525</v>
-      </c>
+      <c r="A98" s="3"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="4">
-        <v>45461</v>
-      </c>
-      <c r="D98" s="4">
-        <v>45825</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="3"/>
       <c r="F98" s="5"/>
-      <c r="G98" s="3" t="s">
-        <v>526</v>
-      </c>
+      <c r="G98" s="3"/>
       <c r="H98" s="5"/>
-      <c r="I98" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="L98" s="11" t="s">
-        <v>527</v>
-      </c>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="11"/>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
@@ -9990,24 +9963,14 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
       <c r="AC98" s="5"/>
-      <c r="AD98" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="AE98" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF98" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="AD98" s="6"/>
+      <c r="AE98" s="3"/>
+      <c r="AF98" s="3"/>
       <c r="AG98" s="5"/>
-      <c r="AH98" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="AH98" s="3"/>
       <c r="AI98" s="5"/>
       <c r="AJ98" s="5"/>
-      <c r="AK98" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="AK98" s="3"/>
       <c r="AL98" s="5"/>
     </row>
   </sheetData>
@@ -10118,8 +10081,6 @@
     <hyperlink ref="AD94" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
     <hyperlink ref="AD95" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
     <hyperlink ref="AD96" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="AD98" r:id="rId107" xr:uid="{7D6D9CD0-E486-4DB0-AF0E-670A68B159A9}"/>
-    <hyperlink ref="L98" r:id="rId108" xr:uid="{02ED12E2-9DC0-48F1-A9EC-298AD25A7652}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
